--- a/GATEWAY/A1#111GRUPPOGPI00/TESI_SPA/ENDOXWEB/25.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111GRUPPOGPI00/TESI_SPA/ENDOXWEB/25.0/report-checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bugs\FSE2_0\Accreditamento\ENDOX_ENDOXWEB_OPTINET\TESTCASE\20231221\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bugs\FSE2_0\Accreditamento\ENDOX_ENDOXWEB_OPTINET\TESTCASE\ENDOXWEB\20240105\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6066ADAB-5A42-48E9-838F-0821BC888724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348B6C9C-34B8-4CB9-8729-6E9E04161A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2149" uniqueCount="886">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2160" uniqueCount="891">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -735,6 +735,9 @@
     <t>VALIDAZIONE_TOKEN_JWT_RSA_KO</t>
   </si>
   <si>
+    <t>VALIDAZIONE_TOKEN_JWT_CERT_VAC_KO</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -781,7 +784,7 @@
     </r>
   </si>
   <si>
-    <t>VALIDAZIONE_TOKEN_JWT_CERT_VAC_KO</t>
+    <t>VALIDAZIONE_TOKEN_JWT_SING_VAC_KO</t>
   </si>
   <si>
     <r>
@@ -830,7 +833,7 @@
     </r>
   </si>
   <si>
-    <t>VALIDAZIONE_TOKEN_JWT_SING_VAC_KO</t>
+    <t>VALIDAZIONE_TOKEN_JWT_VPS_KO</t>
   </si>
   <si>
     <r>
@@ -879,55 +882,6 @@
     </r>
   </si>
   <si>
-    <t>VALIDAZIONE_TOKEN_JWT_VPS_KO</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Precondizioni:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Il fornitore utilizza un token jwt mancante di campi obbligatori, quindi non valido.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Descrizione di Business del caso di test: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt non valido a causa della mancanza di uno o più campi obbligatori al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Al fine di rendere non valido il token è necessario non valorizzare nel JWT il campo "purpose_of_use".</t>
-    </r>
-  </si>
-  <si>
     <t>VALIDAZIONE_TOKEN_JWT_CAMPO_LAB_KO</t>
   </si>
   <si>
@@ -4668,9 +4622,6 @@
     <t>Questo test non è applicabile perché se non è presente l'identificativo della prescrizione non viene inserito un tag order/id</t>
   </si>
   <si>
-    <t>Questo test non è applicabile perché non è previsto l'inserimento del quesito diagnostico.</t>
-  </si>
-  <si>
     <t>Questo test non è applicabile perché l'unico codice utilizzato è "S", con documento firmato.</t>
   </si>
   <si>
@@ -4683,18 +4634,12 @@
 Dopo la correzioni, il referto sarà ri-generato ed il Medico lo potrà rifirmare.</t>
   </si>
   <si>
-    <t>Questa casistica in realtà non si può verificare perché i parametri sono fissati nell'integrazione.</t>
-  </si>
-  <si>
     <t>subject_application_id: ENDOXWEB</t>
   </si>
   <si>
     <t>subject_application_version: 25.0</t>
   </si>
   <si>
-    <t>Il software non gestisce l'informaizone relativa alle procedure delle prestazioni</t>
-  </si>
-  <si>
     <t>Il software non ha una sezione dedicata al confronto con i precedenti esami diagnostici. Pertanto, il caso di test 2 non può essere eseguito.</t>
   </si>
   <si>
@@ -4702,9 +4647,6 @@
   </si>
   <si>
     <t>Il software non ha tutte le sezioni necessarie per la compilazione delle sections del CDA obbligatorie nel TEST 4 (esempio sezione dedicata al confronto con i precedenti esami diagnostici, oppure sezione per Storico Malattie Familiari o Cronicità Problema) . Pertanto, il caso di test 4 non può essere eseguito.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Il campo ConfidentilityCode viene valorizzato solo con uno di questi due valori "N" oppure "V", non sono gestiti altri valori </t>
   </si>
   <si>
     <t>1fd5980e9f3d358a</t>
@@ -4779,19 +4721,66 @@
     <t>Questo test non è applicabile perché lato applicativo non è gestito l'inserimento delle procedure legate alla singola prestazione.</t>
   </si>
   <si>
-    <t>Questo test non è applicabile perché non è gestito l'inserimento della storia clinica.</t>
-  </si>
-  <si>
-    <t>Questo test non è applicabile perché non è gestito l'inserimento dell'anamnesi familiare.</t>
-  </si>
-  <si>
-    <t>Questo test non è applicabile perché non è gestito l'inserimento delle informazioni relative alle allergie.</t>
-  </si>
-  <si>
-    <t>Questo test non è applicabile perché il software non gestisce l'informazione relativa alle allergie compresi gli eventuali agenti scatenanti.</t>
-  </si>
-  <si>
-    <t>Questo test non è applicabile perché non è previsto l'inserimento delle diagnosi (codficate e non) né dei sintomi prevalenti.</t>
+    <t xml:space="preserve"> il programma memorizza nel DB il messaggio di errore che proviene dal servizio di validazione per analisi successiva in backoffice. Una volta corretta la configurazione dell'integrazione (in questo caso il paramatero purpose_of_use)  l'utente dovrà rigenerare il referto e rifirmare</t>
+  </si>
+  <si>
+    <t>2024-01-05T08:38:07.100Z</t>
+  </si>
+  <si>
+    <t>28480377a3611f73</t>
+  </si>
+  <si>
+    <t>UNKNOWN_WORKFLOW_ID</t>
+  </si>
+  <si>
+    <t>d99f5c579c63a383</t>
+  </si>
+  <si>
+    <t>2024-01-05T08:54:15.576Z</t>
+  </si>
+  <si>
+    <t>Il software non gestisce in modo strutturato l'informazione relativa alle procedure legate alle singole prestazioni. 
+Per questa ragione il caso di TEST 1  non può essere eseguito.</t>
+  </si>
+  <si>
+    <t>Il campo ConfidentilityCode viene valorizzato solo con uno di questi due valori "N" oppure "V", non sono gestiti altri valori .</t>
+  </si>
+  <si>
+    <t>In caso di errore il processo applicativo prosegue ed il documento viene firmato. 
+Eventuali re-invii di validazione vengono concordati/definiti con le singole Aziende. 
+Viene messo a disposizione dell'Azienda una modalità di verifica dei documenti che hanno avuto errori di validazione 
+da parte del gateway per poterli individuare e procedere alla correzione, firma e re-invio.
+Gli utenti abilitati (ad esempio le figure di Back-office concordate con l'Azienda) 
+possono accedere ai dati e consultare eventuali errori andando ad individuare i referti da correggere. 
+Dopo la correzioni, il referto sarà ri-generato ed il Medico lo potrà rifirmare.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Il software non gestisce in modo strutturato le diagnosi e i sintomi prevalenti.
+Per questo motivo il TEST 22 non può essere eseguito.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il software non gestisce in modo strutturato le informazioni relative alle allergie e agli agenti scatenanti.
+Per questo motivo il TEST 21 non può essere eseguito.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il software non gestisce in modo strutturato le informazioni relative alle allergie e alle intolleranze.
+Per questo motivo il TEST 20 non può essere eseguito.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il software non gestisce in modo strutturato le informazioni relative all'anamnesi familiare.
+Per questo motivo il TEST 19 non può essere eseguito.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il software non gestisce in modo strutturato le informazioni relative alla storia clinica.
+Per questo motivo il TEST 18 non può essere eseguito.
+</t>
+  </si>
+  <si>
+    <t>Questo test non è applicabile perché la sezione relativa al quesito diagnostico viene inserita nel CDA solo se è stata compilata la relatova sezione lato applicativo, quindi il text è sempre presente nel CDA nel caso sia stato compilato il quesito diagnostico.</t>
   </si>
 </sst>
 </file>
@@ -5133,7 +5122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5256,12 +5245,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5558,7 +5541,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7723,10 +7708,10 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="D168" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="E175" sqref="E175"/>
+      <selection pane="bottomRight" activeCell="K169" sqref="K169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7769,7 +7754,7 @@
       </c>
       <c r="B2" s="40"/>
       <c r="C2" s="41" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D2" s="40"/>
       <c r="F2" s="12"/>
@@ -7794,7 +7779,7 @@
       </c>
       <c r="B3" s="43"/>
       <c r="C3" s="48" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="D3" s="40"/>
       <c r="F3" s="12"/>
@@ -7817,7 +7802,7 @@
       <c r="A4" s="44"/>
       <c r="B4" s="45"/>
       <c r="C4" s="48" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D4" s="40"/>
       <c r="E4" s="4"/>
@@ -7841,7 +7826,7 @@
       <c r="A5" s="46"/>
       <c r="B5" s="47"/>
       <c r="C5" s="48" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="D5" s="40"/>
       <c r="F5" s="12"/>
@@ -8979,23 +8964,37 @@
         <v>113</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="F39" s="23"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
+        <v>103</v>
+      </c>
+      <c r="F39" s="23">
+        <v>45296</v>
+      </c>
+      <c r="G39" s="24" t="s">
+        <v>877</v>
+      </c>
+      <c r="H39" s="24" t="s">
+        <v>878</v>
+      </c>
+      <c r="I39" s="24" t="s">
+        <v>879</v>
+      </c>
       <c r="J39" s="25" t="s">
-        <v>848</v>
-      </c>
-      <c r="K39" s="25" t="s">
-        <v>858</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="K39" s="25"/>
       <c r="L39" s="25"/>
-      <c r="M39" s="25"/>
-      <c r="N39" s="25"/>
-      <c r="O39" s="25"/>
-      <c r="P39" s="25"/>
+      <c r="M39" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="N39" s="25" t="s">
+        <v>868</v>
+      </c>
+      <c r="O39" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="P39" s="25" t="s">
+        <v>876</v>
+      </c>
       <c r="Q39" s="25"/>
       <c r="R39" s="26"/>
       <c r="S39" s="36"/>
@@ -9014,10 +9013,10 @@
         <v>75</v>
       </c>
       <c r="D40" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="E40" s="22" t="s">
         <v>115</v>
-      </c>
-      <c r="E40" s="22" t="s">
-        <v>116</v>
       </c>
       <c r="F40" s="23"/>
       <c r="G40" s="24"/>
@@ -9048,10 +9047,10 @@
         <v>84</v>
       </c>
       <c r="D41" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E41" s="22" t="s">
         <v>117</v>
-      </c>
-      <c r="E41" s="22" t="s">
-        <v>118</v>
       </c>
       <c r="F41" s="23"/>
       <c r="G41" s="24"/>
@@ -9082,10 +9081,10 @@
         <v>93</v>
       </c>
       <c r="D42" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="E42" s="22" t="s">
         <v>119</v>
-      </c>
-      <c r="E42" s="22" t="s">
-        <v>120</v>
       </c>
       <c r="F42" s="23"/>
       <c r="G42" s="24"/>
@@ -9116,10 +9115,10 @@
         <v>45</v>
       </c>
       <c r="D43" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="E43" s="22" t="s">
         <v>121</v>
-      </c>
-      <c r="E43" s="22" t="s">
-        <v>122</v>
       </c>
       <c r="F43" s="23"/>
       <c r="G43" s="24"/>
@@ -9150,10 +9149,10 @@
         <v>57</v>
       </c>
       <c r="D44" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="E44" s="22" t="s">
         <v>123</v>
-      </c>
-      <c r="E44" s="22" t="s">
-        <v>124</v>
       </c>
       <c r="F44" s="23"/>
       <c r="G44" s="24"/>
@@ -9184,10 +9183,10 @@
         <v>107</v>
       </c>
       <c r="D45" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="E45" s="22" t="s">
         <v>125</v>
-      </c>
-      <c r="E45" s="22" t="s">
-        <v>126</v>
       </c>
       <c r="F45" s="23"/>
       <c r="G45" s="24"/>
@@ -9207,7 +9206,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="20">
         <v>39</v>
       </c>
@@ -9218,10 +9217,10 @@
         <v>66</v>
       </c>
       <c r="D46" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="E46" s="22" t="s">
         <v>127</v>
-      </c>
-      <c r="E46" s="22" t="s">
-        <v>128</v>
       </c>
       <c r="F46" s="23"/>
       <c r="G46" s="24"/>
@@ -9241,7 +9240,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="165" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" ht="180" x14ac:dyDescent="0.25">
       <c r="A47" s="20">
         <v>40</v>
       </c>
@@ -9252,26 +9251,40 @@
         <v>112</v>
       </c>
       <c r="D47" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="E47" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="E47" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="F47" s="23"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
+      <c r="F47" s="23">
+        <v>45296</v>
+      </c>
+      <c r="G47" s="24" t="s">
+        <v>881</v>
+      </c>
+      <c r="H47" s="24" t="s">
+        <v>880</v>
+      </c>
+      <c r="I47" s="24" t="s">
+        <v>879</v>
+      </c>
       <c r="J47" s="25" t="s">
-        <v>848</v>
-      </c>
-      <c r="K47" s="25" t="s">
-        <v>858</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="K47" s="25"/>
       <c r="L47" s="25"/>
-      <c r="M47" s="25"/>
-      <c r="N47" s="25"/>
-      <c r="O47" s="25"/>
-      <c r="P47" s="25"/>
+      <c r="M47" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="N47" s="25" t="s">
+        <v>868</v>
+      </c>
+      <c r="O47" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="P47" s="25" t="s">
+        <v>876</v>
+      </c>
       <c r="Q47" s="25"/>
       <c r="R47" s="26"/>
       <c r="S47" s="36"/>
@@ -9290,10 +9303,10 @@
         <v>75</v>
       </c>
       <c r="D48" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="E48" s="22" t="s">
         <v>131</v>
-      </c>
-      <c r="E48" s="22" t="s">
-        <v>132</v>
       </c>
       <c r="F48" s="23"/>
       <c r="G48" s="24"/>
@@ -9324,10 +9337,10 @@
         <v>84</v>
       </c>
       <c r="D49" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="E49" s="22" t="s">
         <v>133</v>
-      </c>
-      <c r="E49" s="22" t="s">
-        <v>134</v>
       </c>
       <c r="F49" s="23"/>
       <c r="G49" s="24"/>
@@ -9358,10 +9371,10 @@
         <v>93</v>
       </c>
       <c r="D50" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="E50" s="22" t="s">
         <v>135</v>
-      </c>
-      <c r="E50" s="22" t="s">
-        <v>136</v>
       </c>
       <c r="F50" s="23"/>
       <c r="G50" s="24"/>
@@ -9392,10 +9405,10 @@
         <v>45</v>
       </c>
       <c r="D51" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="E51" s="22" t="s">
         <v>137</v>
-      </c>
-      <c r="E51" s="22" t="s">
-        <v>138</v>
       </c>
       <c r="F51" s="23"/>
       <c r="G51" s="24"/>
@@ -9410,7 +9423,7 @@
       <c r="P51" s="25"/>
       <c r="Q51" s="25"/>
       <c r="R51" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S51" s="27"/>
       <c r="T51" s="28" t="s">
@@ -9428,10 +9441,10 @@
         <v>57</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E52" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F52" s="23"/>
       <c r="G52" s="24"/>
@@ -9446,7 +9459,7 @@
       <c r="P52" s="25"/>
       <c r="Q52" s="25"/>
       <c r="R52" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S52" s="27"/>
       <c r="T52" s="28" t="s">
@@ -9464,10 +9477,10 @@
         <v>107</v>
       </c>
       <c r="D53" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E53" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F53" s="23"/>
       <c r="G53" s="24"/>
@@ -9482,7 +9495,7 @@
       <c r="P53" s="25"/>
       <c r="Q53" s="25"/>
       <c r="R53" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S53" s="27"/>
       <c r="T53" s="28" t="s">
@@ -9500,10 +9513,10 @@
         <v>66</v>
       </c>
       <c r="D54" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E54" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F54" s="23"/>
       <c r="G54" s="24"/>
@@ -9518,7 +9531,7 @@
       <c r="P54" s="25"/>
       <c r="Q54" s="25"/>
       <c r="R54" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S54" s="27"/>
       <c r="T54" s="28" t="s">
@@ -9536,35 +9549,31 @@
         <v>112</v>
       </c>
       <c r="D55" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E55" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="F55" s="23">
-        <v>45281</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="F55" s="23"/>
       <c r="G55" s="24"/>
       <c r="H55" s="24"/>
       <c r="I55" s="24"/>
-      <c r="J55" s="25" t="s">
-        <v>139</v>
-      </c>
+      <c r="J55" s="25"/>
       <c r="K55" s="25"/>
       <c r="L55" s="25" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="M55" s="25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N55" s="25" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="O55" s="25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P55" s="25" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="Q55" s="25"/>
       <c r="R55" s="26"/>
@@ -9584,10 +9593,10 @@
         <v>75</v>
       </c>
       <c r="D56" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E56" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F56" s="23"/>
       <c r="G56" s="24"/>
@@ -9602,7 +9611,7 @@
       <c r="P56" s="25"/>
       <c r="Q56" s="25"/>
       <c r="R56" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S56" s="27"/>
       <c r="T56" s="28" t="s">
@@ -9620,10 +9629,10 @@
         <v>84</v>
       </c>
       <c r="D57" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E57" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F57" s="23"/>
       <c r="G57" s="24"/>
@@ -9638,7 +9647,7 @@
       <c r="P57" s="25"/>
       <c r="Q57" s="25"/>
       <c r="R57" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S57" s="27"/>
       <c r="T57" s="28" t="s">
@@ -9656,10 +9665,10 @@
         <v>93</v>
       </c>
       <c r="D58" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E58" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F58" s="23"/>
       <c r="G58" s="24"/>
@@ -9674,7 +9683,7 @@
       <c r="P58" s="25"/>
       <c r="Q58" s="25"/>
       <c r="R58" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S58" s="27"/>
       <c r="T58" s="28" t="s">
@@ -9692,10 +9701,10 @@
         <v>45</v>
       </c>
       <c r="D59" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="E59" s="22" t="s">
         <v>147</v>
-      </c>
-      <c r="E59" s="22" t="s">
-        <v>148</v>
       </c>
       <c r="F59" s="23"/>
       <c r="G59" s="24"/>
@@ -9726,10 +9735,10 @@
         <v>45</v>
       </c>
       <c r="D60" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="E60" s="22" t="s">
         <v>149</v>
-      </c>
-      <c r="E60" s="22" t="s">
-        <v>150</v>
       </c>
       <c r="F60" s="23"/>
       <c r="G60" s="24"/>
@@ -9760,10 +9769,10 @@
         <v>45</v>
       </c>
       <c r="D61" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="E61" s="22" t="s">
         <v>151</v>
-      </c>
-      <c r="E61" s="22" t="s">
-        <v>152</v>
       </c>
       <c r="F61" s="23"/>
       <c r="G61" s="24"/>
@@ -9794,10 +9803,10 @@
         <v>45</v>
       </c>
       <c r="D62" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="E62" s="22" t="s">
         <v>153</v>
-      </c>
-      <c r="E62" s="22" t="s">
-        <v>154</v>
       </c>
       <c r="F62" s="23"/>
       <c r="G62" s="24"/>
@@ -9828,10 +9837,10 @@
         <v>45</v>
       </c>
       <c r="D63" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="E63" s="22" t="s">
         <v>155</v>
-      </c>
-      <c r="E63" s="22" t="s">
-        <v>156</v>
       </c>
       <c r="F63" s="23"/>
       <c r="G63" s="24"/>
@@ -9862,10 +9871,10 @@
         <v>45</v>
       </c>
       <c r="D64" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="E64" s="22" t="s">
         <v>157</v>
-      </c>
-      <c r="E64" s="22" t="s">
-        <v>158</v>
       </c>
       <c r="F64" s="23"/>
       <c r="G64" s="24"/>
@@ -9896,10 +9905,10 @@
         <v>45</v>
       </c>
       <c r="D65" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="E65" s="22" t="s">
         <v>159</v>
-      </c>
-      <c r="E65" s="22" t="s">
-        <v>160</v>
       </c>
       <c r="F65" s="23"/>
       <c r="G65" s="24"/>
@@ -9930,10 +9939,10 @@
         <v>45</v>
       </c>
       <c r="D66" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="E66" s="22" t="s">
         <v>161</v>
-      </c>
-      <c r="E66" s="22" t="s">
-        <v>162</v>
       </c>
       <c r="F66" s="23"/>
       <c r="G66" s="24"/>
@@ -9964,10 +9973,10 @@
         <v>45</v>
       </c>
       <c r="D67" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="E67" s="22" t="s">
         <v>163</v>
-      </c>
-      <c r="E67" s="22" t="s">
-        <v>164</v>
       </c>
       <c r="F67" s="23"/>
       <c r="G67" s="24"/>
@@ -9998,10 +10007,10 @@
         <v>45</v>
       </c>
       <c r="D68" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="E68" s="22" t="s">
         <v>165</v>
-      </c>
-      <c r="E68" s="22" t="s">
-        <v>166</v>
       </c>
       <c r="F68" s="23"/>
       <c r="G68" s="24"/>
@@ -10032,10 +10041,10 @@
         <v>45</v>
       </c>
       <c r="D69" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="E69" s="22" t="s">
         <v>167</v>
-      </c>
-      <c r="E69" s="22" t="s">
-        <v>168</v>
       </c>
       <c r="F69" s="23"/>
       <c r="G69" s="24"/>
@@ -10066,10 +10075,10 @@
         <v>57</v>
       </c>
       <c r="D70" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="E70" s="22" t="s">
         <v>169</v>
-      </c>
-      <c r="E70" s="22" t="s">
-        <v>170</v>
       </c>
       <c r="F70" s="23"/>
       <c r="G70" s="24"/>
@@ -10100,10 +10109,10 @@
         <v>57</v>
       </c>
       <c r="D71" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="E71" s="22" t="s">
         <v>171</v>
-      </c>
-      <c r="E71" s="22" t="s">
-        <v>172</v>
       </c>
       <c r="F71" s="23"/>
       <c r="G71" s="24"/>
@@ -10134,10 +10143,10 @@
         <v>57</v>
       </c>
       <c r="D72" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="E72" s="22" t="s">
         <v>173</v>
-      </c>
-      <c r="E72" s="22" t="s">
-        <v>174</v>
       </c>
       <c r="F72" s="23"/>
       <c r="G72" s="24"/>
@@ -10168,10 +10177,10 @@
         <v>57</v>
       </c>
       <c r="D73" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="E73" s="22" t="s">
         <v>175</v>
-      </c>
-      <c r="E73" s="22" t="s">
-        <v>176</v>
       </c>
       <c r="F73" s="23"/>
       <c r="G73" s="24"/>
@@ -10202,10 +10211,10 @@
         <v>57</v>
       </c>
       <c r="D74" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="E74" s="22" t="s">
         <v>177</v>
-      </c>
-      <c r="E74" s="22" t="s">
-        <v>178</v>
       </c>
       <c r="F74" s="23"/>
       <c r="G74" s="24"/>
@@ -10236,10 +10245,10 @@
         <v>57</v>
       </c>
       <c r="D75" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="E75" s="22" t="s">
         <v>179</v>
-      </c>
-      <c r="E75" s="22" t="s">
-        <v>180</v>
       </c>
       <c r="F75" s="23"/>
       <c r="G75" s="24"/>
@@ -10270,10 +10279,10 @@
         <v>57</v>
       </c>
       <c r="D76" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="E76" s="22" t="s">
         <v>181</v>
-      </c>
-      <c r="E76" s="22" t="s">
-        <v>182</v>
       </c>
       <c r="F76" s="23"/>
       <c r="G76" s="24"/>
@@ -10304,10 +10313,10 @@
         <v>57</v>
       </c>
       <c r="D77" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="E77" s="22" t="s">
         <v>183</v>
-      </c>
-      <c r="E77" s="22" t="s">
-        <v>184</v>
       </c>
       <c r="F77" s="23"/>
       <c r="G77" s="24"/>
@@ -10338,10 +10347,10 @@
         <v>57</v>
       </c>
       <c r="D78" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E78" s="22" t="s">
         <v>185</v>
-      </c>
-      <c r="E78" s="22" t="s">
-        <v>186</v>
       </c>
       <c r="F78" s="23"/>
       <c r="G78" s="24"/>
@@ -10372,10 +10381,10 @@
         <v>57</v>
       </c>
       <c r="D79" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="E79" s="22" t="s">
         <v>187</v>
-      </c>
-      <c r="E79" s="22" t="s">
-        <v>188</v>
       </c>
       <c r="F79" s="23"/>
       <c r="G79" s="24"/>
@@ -10406,10 +10415,10 @@
         <v>57</v>
       </c>
       <c r="D80" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="E80" s="22" t="s">
         <v>189</v>
-      </c>
-      <c r="E80" s="22" t="s">
-        <v>190</v>
       </c>
       <c r="F80" s="23"/>
       <c r="G80" s="24"/>
@@ -10440,10 +10449,10 @@
         <v>57</v>
       </c>
       <c r="D81" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="E81" s="22" t="s">
         <v>191</v>
-      </c>
-      <c r="E81" s="22" t="s">
-        <v>192</v>
       </c>
       <c r="F81" s="23"/>
       <c r="G81" s="24"/>
@@ -10474,10 +10483,10 @@
         <v>66</v>
       </c>
       <c r="D82" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="E82" s="22" t="s">
         <v>193</v>
-      </c>
-      <c r="E82" s="22" t="s">
-        <v>194</v>
       </c>
       <c r="F82" s="23"/>
       <c r="G82" s="24"/>
@@ -10508,10 +10517,10 @@
         <v>66</v>
       </c>
       <c r="D83" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="E83" s="22" t="s">
         <v>195</v>
-      </c>
-      <c r="E83" s="22" t="s">
-        <v>196</v>
       </c>
       <c r="F83" s="23"/>
       <c r="G83" s="24"/>
@@ -10542,10 +10551,10 @@
         <v>66</v>
       </c>
       <c r="D84" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="E84" s="22" t="s">
         <v>197</v>
-      </c>
-      <c r="E84" s="22" t="s">
-        <v>198</v>
       </c>
       <c r="F84" s="23"/>
       <c r="G84" s="24"/>
@@ -10576,10 +10585,10 @@
         <v>66</v>
       </c>
       <c r="D85" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="E85" s="22" t="s">
         <v>199</v>
-      </c>
-      <c r="E85" s="22" t="s">
-        <v>200</v>
       </c>
       <c r="F85" s="23"/>
       <c r="G85" s="24"/>
@@ -10610,10 +10619,10 @@
         <v>66</v>
       </c>
       <c r="D86" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="E86" s="22" t="s">
         <v>201</v>
-      </c>
-      <c r="E86" s="22" t="s">
-        <v>202</v>
       </c>
       <c r="F86" s="23"/>
       <c r="G86" s="24"/>
@@ -10644,10 +10653,10 @@
         <v>66</v>
       </c>
       <c r="D87" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="E87" s="22" t="s">
         <v>203</v>
-      </c>
-      <c r="E87" s="22" t="s">
-        <v>204</v>
       </c>
       <c r="F87" s="23"/>
       <c r="G87" s="24"/>
@@ -10678,10 +10687,10 @@
         <v>66</v>
       </c>
       <c r="D88" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E88" s="22" t="s">
         <v>205</v>
-      </c>
-      <c r="E88" s="22" t="s">
-        <v>206</v>
       </c>
       <c r="F88" s="23"/>
       <c r="G88" s="24"/>
@@ -10712,10 +10721,10 @@
         <v>66</v>
       </c>
       <c r="D89" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="E89" s="22" t="s">
         <v>207</v>
-      </c>
-      <c r="E89" s="22" t="s">
-        <v>208</v>
       </c>
       <c r="F89" s="23"/>
       <c r="G89" s="24"/>
@@ -10746,10 +10755,10 @@
         <v>66</v>
       </c>
       <c r="D90" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="E90" s="22" t="s">
         <v>209</v>
-      </c>
-      <c r="E90" s="22" t="s">
-        <v>210</v>
       </c>
       <c r="F90" s="23"/>
       <c r="G90" s="24"/>
@@ -10780,10 +10789,10 @@
         <v>66</v>
       </c>
       <c r="D91" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="E91" s="22" t="s">
         <v>211</v>
-      </c>
-      <c r="E91" s="22" t="s">
-        <v>212</v>
       </c>
       <c r="F91" s="23"/>
       <c r="G91" s="24"/>
@@ -10814,10 +10823,10 @@
         <v>66</v>
       </c>
       <c r="D92" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="E92" s="22" t="s">
         <v>213</v>
-      </c>
-      <c r="E92" s="22" t="s">
-        <v>214</v>
       </c>
       <c r="F92" s="23"/>
       <c r="G92" s="24"/>
@@ -10848,10 +10857,10 @@
         <v>66</v>
       </c>
       <c r="D93" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="E93" s="22" t="s">
         <v>215</v>
-      </c>
-      <c r="E93" s="22" t="s">
-        <v>216</v>
       </c>
       <c r="F93" s="23"/>
       <c r="G93" s="24"/>
@@ -10882,10 +10891,10 @@
         <v>66</v>
       </c>
       <c r="D94" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="E94" s="22" t="s">
         <v>217</v>
-      </c>
-      <c r="E94" s="22" t="s">
-        <v>218</v>
       </c>
       <c r="F94" s="23"/>
       <c r="G94" s="24"/>
@@ -10916,10 +10925,10 @@
         <v>66</v>
       </c>
       <c r="D95" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="E95" s="22" t="s">
         <v>219</v>
-      </c>
-      <c r="E95" s="22" t="s">
-        <v>220</v>
       </c>
       <c r="F95" s="23"/>
       <c r="G95" s="24"/>
@@ -10950,10 +10959,10 @@
         <v>66</v>
       </c>
       <c r="D96" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="E96" s="22" t="s">
         <v>221</v>
-      </c>
-      <c r="E96" s="22" t="s">
-        <v>222</v>
       </c>
       <c r="F96" s="23"/>
       <c r="G96" s="24"/>
@@ -10984,10 +10993,10 @@
         <v>66</v>
       </c>
       <c r="D97" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="E97" s="22" t="s">
         <v>223</v>
-      </c>
-      <c r="E97" s="22" t="s">
-        <v>224</v>
       </c>
       <c r="F97" s="23"/>
       <c r="G97" s="24"/>
@@ -11018,10 +11027,10 @@
         <v>66</v>
       </c>
       <c r="D98" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="E98" s="22" t="s">
         <v>225</v>
-      </c>
-      <c r="E98" s="22" t="s">
-        <v>226</v>
       </c>
       <c r="F98" s="23"/>
       <c r="G98" s="24"/>
@@ -11052,10 +11061,10 @@
         <v>66</v>
       </c>
       <c r="D99" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="E99" s="22" t="s">
         <v>227</v>
-      </c>
-      <c r="E99" s="22" t="s">
-        <v>228</v>
       </c>
       <c r="F99" s="23"/>
       <c r="G99" s="24"/>
@@ -11086,10 +11095,10 @@
         <v>66</v>
       </c>
       <c r="D100" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="E100" s="22" t="s">
         <v>229</v>
-      </c>
-      <c r="E100" s="22" t="s">
-        <v>230</v>
       </c>
       <c r="F100" s="23"/>
       <c r="G100" s="24"/>
@@ -11120,10 +11129,10 @@
         <v>75</v>
       </c>
       <c r="D101" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="E101" s="22" t="s">
         <v>231</v>
-      </c>
-      <c r="E101" s="22" t="s">
-        <v>232</v>
       </c>
       <c r="F101" s="23"/>
       <c r="G101" s="24"/>
@@ -11154,10 +11163,10 @@
         <v>75</v>
       </c>
       <c r="D102" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="E102" s="22" t="s">
         <v>233</v>
-      </c>
-      <c r="E102" s="22" t="s">
-        <v>234</v>
       </c>
       <c r="F102" s="23"/>
       <c r="G102" s="24"/>
@@ -11188,10 +11197,10 @@
         <v>75</v>
       </c>
       <c r="D103" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="E103" s="22" t="s">
         <v>235</v>
-      </c>
-      <c r="E103" s="22" t="s">
-        <v>236</v>
       </c>
       <c r="F103" s="23"/>
       <c r="G103" s="24"/>
@@ -11222,10 +11231,10 @@
         <v>75</v>
       </c>
       <c r="D104" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="E104" s="22" t="s">
         <v>237</v>
-      </c>
-      <c r="E104" s="22" t="s">
-        <v>238</v>
       </c>
       <c r="F104" s="23"/>
       <c r="G104" s="24"/>
@@ -11256,10 +11265,10 @@
         <v>75</v>
       </c>
       <c r="D105" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="E105" s="22" t="s">
         <v>239</v>
-      </c>
-      <c r="E105" s="22" t="s">
-        <v>240</v>
       </c>
       <c r="F105" s="23"/>
       <c r="G105" s="24"/>
@@ -11290,10 +11299,10 @@
         <v>75</v>
       </c>
       <c r="D106" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="E106" s="22" t="s">
         <v>241</v>
-      </c>
-      <c r="E106" s="22" t="s">
-        <v>242</v>
       </c>
       <c r="F106" s="23"/>
       <c r="G106" s="24"/>
@@ -11324,10 +11333,10 @@
         <v>75</v>
       </c>
       <c r="D107" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="E107" s="22" t="s">
         <v>243</v>
-      </c>
-      <c r="E107" s="22" t="s">
-        <v>244</v>
       </c>
       <c r="F107" s="23"/>
       <c r="G107" s="24"/>
@@ -11358,10 +11367,10 @@
         <v>75</v>
       </c>
       <c r="D108" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="E108" s="22" t="s">
         <v>245</v>
-      </c>
-      <c r="E108" s="22" t="s">
-        <v>246</v>
       </c>
       <c r="F108" s="23"/>
       <c r="G108" s="24"/>
@@ -11392,10 +11401,10 @@
         <v>75</v>
       </c>
       <c r="D109" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="E109" s="22" t="s">
         <v>247</v>
-      </c>
-      <c r="E109" s="22" t="s">
-        <v>248</v>
       </c>
       <c r="F109" s="23"/>
       <c r="G109" s="24"/>
@@ -11426,10 +11435,10 @@
         <v>75</v>
       </c>
       <c r="D110" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="E110" s="22" t="s">
         <v>249</v>
-      </c>
-      <c r="E110" s="22" t="s">
-        <v>250</v>
       </c>
       <c r="F110" s="23"/>
       <c r="G110" s="24"/>
@@ -11460,10 +11469,10 @@
         <v>75</v>
       </c>
       <c r="D111" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="E111" s="22" t="s">
         <v>251</v>
-      </c>
-      <c r="E111" s="22" t="s">
-        <v>252</v>
       </c>
       <c r="F111" s="23"/>
       <c r="G111" s="24"/>
@@ -11494,10 +11503,10 @@
         <v>75</v>
       </c>
       <c r="D112" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="E112" s="22" t="s">
         <v>253</v>
-      </c>
-      <c r="E112" s="22" t="s">
-        <v>254</v>
       </c>
       <c r="F112" s="23"/>
       <c r="G112" s="24"/>
@@ -11528,10 +11537,10 @@
         <v>75</v>
       </c>
       <c r="D113" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="E113" s="22" t="s">
         <v>255</v>
-      </c>
-      <c r="E113" s="22" t="s">
-        <v>256</v>
       </c>
       <c r="F113" s="23"/>
       <c r="G113" s="24"/>
@@ -11562,10 +11571,10 @@
         <v>84</v>
       </c>
       <c r="D114" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="E114" s="22" t="s">
         <v>257</v>
-      </c>
-      <c r="E114" s="22" t="s">
-        <v>258</v>
       </c>
       <c r="F114" s="23"/>
       <c r="G114" s="24"/>
@@ -11596,10 +11605,10 @@
         <v>84</v>
       </c>
       <c r="D115" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="E115" s="22" t="s">
         <v>259</v>
-      </c>
-      <c r="E115" s="22" t="s">
-        <v>260</v>
       </c>
       <c r="F115" s="23"/>
       <c r="G115" s="24"/>
@@ -11630,10 +11639,10 @@
         <v>84</v>
       </c>
       <c r="D116" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="E116" s="22" t="s">
         <v>261</v>
-      </c>
-      <c r="E116" s="22" t="s">
-        <v>262</v>
       </c>
       <c r="F116" s="23"/>
       <c r="G116" s="24"/>
@@ -11664,10 +11673,10 @@
         <v>84</v>
       </c>
       <c r="D117" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="E117" s="22" t="s">
         <v>263</v>
-      </c>
-      <c r="E117" s="22" t="s">
-        <v>264</v>
       </c>
       <c r="F117" s="23"/>
       <c r="G117" s="24"/>
@@ -11698,10 +11707,10 @@
         <v>84</v>
       </c>
       <c r="D118" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="E118" s="22" t="s">
         <v>265</v>
-      </c>
-      <c r="E118" s="22" t="s">
-        <v>266</v>
       </c>
       <c r="F118" s="23"/>
       <c r="G118" s="24"/>
@@ -11732,10 +11741,10 @@
         <v>84</v>
       </c>
       <c r="D119" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="E119" s="22" t="s">
         <v>267</v>
-      </c>
-      <c r="E119" s="22" t="s">
-        <v>268</v>
       </c>
       <c r="F119" s="23"/>
       <c r="G119" s="24"/>
@@ -11766,10 +11775,10 @@
         <v>84</v>
       </c>
       <c r="D120" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="E120" s="22" t="s">
         <v>269</v>
-      </c>
-      <c r="E120" s="22" t="s">
-        <v>270</v>
       </c>
       <c r="F120" s="23"/>
       <c r="G120" s="24"/>
@@ -11800,10 +11809,10 @@
         <v>84</v>
       </c>
       <c r="D121" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="E121" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="E121" s="22" t="s">
-        <v>272</v>
       </c>
       <c r="F121" s="23"/>
       <c r="G121" s="24"/>
@@ -11834,10 +11843,10 @@
         <v>84</v>
       </c>
       <c r="D122" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="E122" s="22" t="s">
         <v>273</v>
-      </c>
-      <c r="E122" s="22" t="s">
-        <v>274</v>
       </c>
       <c r="F122" s="23"/>
       <c r="G122" s="24"/>
@@ -11868,10 +11877,10 @@
         <v>84</v>
       </c>
       <c r="D123" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="E123" s="22" t="s">
         <v>275</v>
-      </c>
-      <c r="E123" s="22" t="s">
-        <v>276</v>
       </c>
       <c r="F123" s="23"/>
       <c r="G123" s="24"/>
@@ -11902,10 +11911,10 @@
         <v>84</v>
       </c>
       <c r="D124" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="E124" s="22" t="s">
         <v>277</v>
-      </c>
-      <c r="E124" s="22" t="s">
-        <v>278</v>
       </c>
       <c r="F124" s="23"/>
       <c r="G124" s="24"/>
@@ -11936,10 +11945,10 @@
         <v>84</v>
       </c>
       <c r="D125" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="E125" s="22" t="s">
         <v>279</v>
-      </c>
-      <c r="E125" s="22" t="s">
-        <v>280</v>
       </c>
       <c r="F125" s="23"/>
       <c r="G125" s="24"/>
@@ -11970,10 +11979,10 @@
         <v>84</v>
       </c>
       <c r="D126" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="E126" s="22" t="s">
         <v>281</v>
-      </c>
-      <c r="E126" s="22" t="s">
-        <v>282</v>
       </c>
       <c r="F126" s="23"/>
       <c r="G126" s="24"/>
@@ -12004,10 +12013,10 @@
         <v>84</v>
       </c>
       <c r="D127" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="E127" s="22" t="s">
         <v>283</v>
-      </c>
-      <c r="E127" s="22" t="s">
-        <v>284</v>
       </c>
       <c r="F127" s="23"/>
       <c r="G127" s="24"/>
@@ -12038,10 +12047,10 @@
         <v>84</v>
       </c>
       <c r="D128" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="E128" s="22" t="s">
         <v>285</v>
-      </c>
-      <c r="E128" s="22" t="s">
-        <v>286</v>
       </c>
       <c r="F128" s="23"/>
       <c r="G128" s="24"/>
@@ -12072,10 +12081,10 @@
         <v>93</v>
       </c>
       <c r="D129" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="E129" s="22" t="s">
         <v>287</v>
-      </c>
-      <c r="E129" s="22" t="s">
-        <v>288</v>
       </c>
       <c r="F129" s="23"/>
       <c r="G129" s="24"/>
@@ -12106,10 +12115,10 @@
         <v>93</v>
       </c>
       <c r="D130" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="E130" s="22" t="s">
         <v>289</v>
-      </c>
-      <c r="E130" s="22" t="s">
-        <v>290</v>
       </c>
       <c r="F130" s="23"/>
       <c r="G130" s="24"/>
@@ -12140,10 +12149,10 @@
         <v>93</v>
       </c>
       <c r="D131" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="E131" s="22" t="s">
         <v>291</v>
-      </c>
-      <c r="E131" s="22" t="s">
-        <v>292</v>
       </c>
       <c r="F131" s="23"/>
       <c r="G131" s="24"/>
@@ -12174,10 +12183,10 @@
         <v>93</v>
       </c>
       <c r="D132" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="E132" s="22" t="s">
         <v>293</v>
-      </c>
-      <c r="E132" s="22" t="s">
-        <v>294</v>
       </c>
       <c r="F132" s="23"/>
       <c r="G132" s="24"/>
@@ -12208,10 +12217,10 @@
         <v>93</v>
       </c>
       <c r="D133" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="E133" s="22" t="s">
         <v>295</v>
-      </c>
-      <c r="E133" s="22" t="s">
-        <v>296</v>
       </c>
       <c r="F133" s="23"/>
       <c r="G133" s="24"/>
@@ -12242,10 +12251,10 @@
         <v>93</v>
       </c>
       <c r="D134" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="E134" s="22" t="s">
         <v>297</v>
-      </c>
-      <c r="E134" s="22" t="s">
-        <v>298</v>
       </c>
       <c r="F134" s="23"/>
       <c r="G134" s="24"/>
@@ -12276,10 +12285,10 @@
         <v>93</v>
       </c>
       <c r="D135" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="E135" s="22" t="s">
         <v>299</v>
-      </c>
-      <c r="E135" s="22" t="s">
-        <v>300</v>
       </c>
       <c r="F135" s="23"/>
       <c r="G135" s="24"/>
@@ -12310,10 +12319,10 @@
         <v>93</v>
       </c>
       <c r="D136" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="E136" s="22" t="s">
         <v>301</v>
-      </c>
-      <c r="E136" s="22" t="s">
-        <v>302</v>
       </c>
       <c r="F136" s="23"/>
       <c r="G136" s="24"/>
@@ -12344,10 +12353,10 @@
         <v>93</v>
       </c>
       <c r="D137" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="E137" s="22" t="s">
         <v>303</v>
-      </c>
-      <c r="E137" s="22" t="s">
-        <v>304</v>
       </c>
       <c r="F137" s="23"/>
       <c r="G137" s="24"/>
@@ -12378,10 +12387,10 @@
         <v>93</v>
       </c>
       <c r="D138" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="E138" s="22" t="s">
         <v>305</v>
-      </c>
-      <c r="E138" s="22" t="s">
-        <v>306</v>
       </c>
       <c r="F138" s="23"/>
       <c r="G138" s="24"/>
@@ -12412,10 +12421,10 @@
         <v>93</v>
       </c>
       <c r="D139" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="E139" s="22" t="s">
         <v>307</v>
-      </c>
-      <c r="E139" s="22" t="s">
-        <v>308</v>
       </c>
       <c r="F139" s="23"/>
       <c r="G139" s="24"/>
@@ -12446,10 +12455,10 @@
         <v>93</v>
       </c>
       <c r="D140" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E140" s="22" t="s">
         <v>309</v>
-      </c>
-      <c r="E140" s="22" t="s">
-        <v>310</v>
       </c>
       <c r="F140" s="23"/>
       <c r="G140" s="24"/>
@@ -12480,10 +12489,10 @@
         <v>93</v>
       </c>
       <c r="D141" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="E141" s="22" t="s">
         <v>311</v>
-      </c>
-      <c r="E141" s="22" t="s">
-        <v>312</v>
       </c>
       <c r="F141" s="23"/>
       <c r="G141" s="24"/>
@@ -12514,10 +12523,10 @@
         <v>93</v>
       </c>
       <c r="D142" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="E142" s="22" t="s">
         <v>313</v>
-      </c>
-      <c r="E142" s="22" t="s">
-        <v>314</v>
       </c>
       <c r="F142" s="23"/>
       <c r="G142" s="24"/>
@@ -12548,10 +12557,10 @@
         <v>93</v>
       </c>
       <c r="D143" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="E143" s="22" t="s">
         <v>315</v>
-      </c>
-      <c r="E143" s="22" t="s">
-        <v>316</v>
       </c>
       <c r="F143" s="23"/>
       <c r="G143" s="24"/>
@@ -12582,10 +12591,10 @@
         <v>93</v>
       </c>
       <c r="D144" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="E144" s="22" t="s">
         <v>317</v>
-      </c>
-      <c r="E144" s="22" t="s">
-        <v>318</v>
       </c>
       <c r="F144" s="23"/>
       <c r="G144" s="24"/>
@@ -12616,10 +12625,10 @@
         <v>93</v>
       </c>
       <c r="D145" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="E145" s="22" t="s">
         <v>319</v>
-      </c>
-      <c r="E145" s="22" t="s">
-        <v>320</v>
       </c>
       <c r="F145" s="23"/>
       <c r="G145" s="24"/>
@@ -12650,10 +12659,10 @@
         <v>93</v>
       </c>
       <c r="D146" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="E146" s="22" t="s">
         <v>321</v>
-      </c>
-      <c r="E146" s="22" t="s">
-        <v>322</v>
       </c>
       <c r="F146" s="23"/>
       <c r="G146" s="24"/>
@@ -12684,10 +12693,10 @@
         <v>93</v>
       </c>
       <c r="D147" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="E147" s="22" t="s">
         <v>323</v>
-      </c>
-      <c r="E147" s="22" t="s">
-        <v>324</v>
       </c>
       <c r="F147" s="23"/>
       <c r="G147" s="24"/>
@@ -12718,10 +12727,10 @@
         <v>93</v>
       </c>
       <c r="D148" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="E148" s="22" t="s">
         <v>325</v>
-      </c>
-      <c r="E148" s="22" t="s">
-        <v>326</v>
       </c>
       <c r="F148" s="23"/>
       <c r="G148" s="24"/>
@@ -12752,10 +12761,10 @@
         <v>93</v>
       </c>
       <c r="D149" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="E149" s="22" t="s">
         <v>327</v>
-      </c>
-      <c r="E149" s="22" t="s">
-        <v>328</v>
       </c>
       <c r="F149" s="23"/>
       <c r="G149" s="24"/>
@@ -12786,10 +12795,10 @@
         <v>93</v>
       </c>
       <c r="D150" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="E150" s="22" t="s">
         <v>329</v>
-      </c>
-      <c r="E150" s="22" t="s">
-        <v>330</v>
       </c>
       <c r="F150" s="23"/>
       <c r="G150" s="24"/>
@@ -12820,10 +12829,10 @@
         <v>93</v>
       </c>
       <c r="D151" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="E151" s="22" t="s">
         <v>331</v>
-      </c>
-      <c r="E151" s="22" t="s">
-        <v>332</v>
       </c>
       <c r="F151" s="23"/>
       <c r="G151" s="24"/>
@@ -12854,10 +12863,10 @@
         <v>93</v>
       </c>
       <c r="D152" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="E152" s="22" t="s">
         <v>333</v>
-      </c>
-      <c r="E152" s="22" t="s">
-        <v>334</v>
       </c>
       <c r="F152" s="23"/>
       <c r="G152" s="24"/>
@@ -12888,10 +12897,10 @@
         <v>93</v>
       </c>
       <c r="D153" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="E153" s="22" t="s">
         <v>335</v>
-      </c>
-      <c r="E153" s="22" t="s">
-        <v>336</v>
       </c>
       <c r="F153" s="23"/>
       <c r="G153" s="24"/>
@@ -12911,7 +12920,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="154" spans="1:20" ht="165" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:20" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="20">
         <v>147</v>
       </c>
@@ -12922,20 +12931,20 @@
         <v>112</v>
       </c>
       <c r="D154" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="E154" s="22" t="s">
         <v>337</v>
-      </c>
-      <c r="E154" s="22" t="s">
-        <v>338</v>
       </c>
       <c r="F154" s="23"/>
       <c r="G154" s="24"/>
       <c r="H154" s="24"/>
       <c r="I154" s="24"/>
       <c r="J154" s="25" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="K154" s="25" t="s">
-        <v>861</v>
+        <v>882</v>
       </c>
       <c r="L154" s="25"/>
       <c r="M154" s="25"/>
@@ -12949,7 +12958,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="155" spans="1:20" ht="165" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:20" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="20">
         <v>148</v>
       </c>
@@ -12960,20 +12969,20 @@
         <v>112</v>
       </c>
       <c r="D155" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="E155" s="22" t="s">
         <v>339</v>
-      </c>
-      <c r="E155" s="22" t="s">
-        <v>340</v>
       </c>
       <c r="F155" s="23"/>
       <c r="G155" s="24"/>
       <c r="H155" s="24"/>
       <c r="I155" s="24"/>
       <c r="J155" s="25" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="K155" s="25" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="L155" s="25"/>
       <c r="M155" s="25"/>
@@ -12987,7 +12996,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="156" spans="1:20" ht="165" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:20" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="20">
         <v>149</v>
       </c>
@@ -12998,20 +13007,20 @@
         <v>112</v>
       </c>
       <c r="D156" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="E156" s="22" t="s">
         <v>341</v>
-      </c>
-      <c r="E156" s="22" t="s">
-        <v>342</v>
       </c>
       <c r="F156" s="23"/>
       <c r="G156" s="24"/>
       <c r="H156" s="24"/>
       <c r="I156" s="24"/>
       <c r="J156" s="25" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="K156" s="25" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="L156" s="25"/>
       <c r="M156" s="25"/>
@@ -13025,7 +13034,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="157" spans="1:20" ht="165" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:20" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="20">
         <v>150</v>
       </c>
@@ -13036,20 +13045,20 @@
         <v>112</v>
       </c>
       <c r="D157" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="E157" s="22" t="s">
         <v>343</v>
-      </c>
-      <c r="E157" s="22" t="s">
-        <v>344</v>
       </c>
       <c r="F157" s="23"/>
       <c r="G157" s="24"/>
       <c r="H157" s="24"/>
       <c r="I157" s="24"/>
       <c r="J157" s="25" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="K157" s="25" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="L157" s="25"/>
       <c r="M157" s="25"/>
@@ -13074,20 +13083,20 @@
         <v>112</v>
       </c>
       <c r="D158" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="E158" s="22" t="s">
         <v>345</v>
-      </c>
-      <c r="E158" s="22" t="s">
-        <v>346</v>
       </c>
       <c r="F158" s="23"/>
       <c r="G158" s="24"/>
       <c r="H158" s="24"/>
       <c r="I158" s="24"/>
       <c r="J158" s="25" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="K158" s="25" t="s">
-        <v>865</v>
+        <v>883</v>
       </c>
       <c r="L158" s="25"/>
       <c r="M158" s="25"/>
@@ -13112,20 +13121,20 @@
         <v>112</v>
       </c>
       <c r="D159" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="E159" s="22" t="s">
         <v>347</v>
-      </c>
-      <c r="E159" s="50" t="s">
-        <v>348</v>
       </c>
       <c r="F159" s="23"/>
       <c r="G159" s="24"/>
       <c r="H159" s="24"/>
       <c r="I159" s="24"/>
       <c r="J159" s="25" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="K159" s="25" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="L159" s="25"/>
       <c r="M159" s="25"/>
@@ -13150,20 +13159,20 @@
         <v>112</v>
       </c>
       <c r="D160" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="E160" s="22" t="s">
         <v>349</v>
-      </c>
-      <c r="E160" s="22" t="s">
-        <v>350</v>
       </c>
       <c r="F160" s="23"/>
       <c r="G160" s="24"/>
       <c r="H160" s="24"/>
       <c r="I160" s="24"/>
       <c r="J160" s="25" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="K160" s="25" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="L160" s="25"/>
       <c r="M160" s="25"/>
@@ -13188,20 +13197,20 @@
         <v>112</v>
       </c>
       <c r="D161" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="E161" s="22" t="s">
         <v>351</v>
-      </c>
-      <c r="E161" s="50" t="s">
-        <v>352</v>
       </c>
       <c r="F161" s="23"/>
       <c r="G161" s="24"/>
       <c r="H161" s="24"/>
       <c r="I161" s="24"/>
       <c r="J161" s="25" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="K161" s="25" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="L161" s="25"/>
       <c r="M161" s="25"/>
@@ -13226,20 +13235,20 @@
         <v>112</v>
       </c>
       <c r="D162" s="21" t="s">
+        <v>352</v>
+      </c>
+      <c r="E162" s="22" t="s">
         <v>353</v>
-      </c>
-      <c r="E162" s="22" t="s">
-        <v>354</v>
       </c>
       <c r="F162" s="23"/>
       <c r="G162" s="24"/>
       <c r="H162" s="24"/>
       <c r="I162" s="24"/>
       <c r="J162" s="25" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="K162" s="25" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="L162" s="25"/>
       <c r="M162" s="25"/>
@@ -13264,20 +13273,20 @@
         <v>112</v>
       </c>
       <c r="D163" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="E163" s="22" t="s">
         <v>355</v>
-      </c>
-      <c r="E163" s="22" t="s">
-        <v>356</v>
       </c>
       <c r="F163" s="23"/>
       <c r="G163" s="24"/>
       <c r="H163" s="24"/>
       <c r="I163" s="24"/>
       <c r="J163" s="25" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="K163" s="25" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="L163" s="25"/>
       <c r="M163" s="25"/>
@@ -13302,20 +13311,20 @@
         <v>112</v>
       </c>
       <c r="D164" s="21" t="s">
+        <v>356</v>
+      </c>
+      <c r="E164" s="22" t="s">
         <v>357</v>
-      </c>
-      <c r="E164" s="22" t="s">
-        <v>358</v>
       </c>
       <c r="F164" s="23"/>
       <c r="G164" s="35"/>
       <c r="H164" s="35"/>
       <c r="I164" s="35"/>
       <c r="J164" s="25" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="K164" s="25" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="L164" s="25"/>
       <c r="M164" s="25"/>
@@ -13340,20 +13349,20 @@
         <v>112</v>
       </c>
       <c r="D165" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="E165" s="22" t="s">
         <v>359</v>
-      </c>
-      <c r="E165" s="22" t="s">
-        <v>360</v>
       </c>
       <c r="F165" s="23"/>
       <c r="G165" s="24"/>
       <c r="H165" s="24"/>
       <c r="I165" s="24"/>
       <c r="J165" s="25" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="K165" s="25" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="L165" s="25"/>
       <c r="M165" s="25"/>
@@ -13378,20 +13387,20 @@
         <v>112</v>
       </c>
       <c r="D166" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="E166" s="22" t="s">
         <v>361</v>
-      </c>
-      <c r="E166" s="22" t="s">
-        <v>362</v>
       </c>
       <c r="F166" s="23"/>
       <c r="G166" s="24"/>
       <c r="H166" s="24"/>
       <c r="I166" s="24"/>
       <c r="J166" s="25" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="K166" s="25" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="L166" s="25"/>
       <c r="M166" s="25"/>
@@ -13405,7 +13414,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="167" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:20" ht="405" x14ac:dyDescent="0.25">
       <c r="A167" s="20">
         <v>160</v>
       </c>
@@ -13416,41 +13425,41 @@
         <v>112</v>
       </c>
       <c r="D167" s="21" t="s">
+        <v>362</v>
+      </c>
+      <c r="E167" s="22" t="s">
         <v>363</v>
-      </c>
-      <c r="E167" s="22" t="s">
-        <v>364</v>
       </c>
       <c r="F167" s="23">
         <v>45294</v>
       </c>
       <c r="G167" s="24" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="H167" s="24" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="I167" s="24" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="J167" s="25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K167" s="25"/>
       <c r="L167" s="25" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="M167" s="25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N167" s="25" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="O167" s="25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P167" s="25" t="s">
-        <v>857</v>
+        <v>884</v>
       </c>
       <c r="Q167" s="25"/>
       <c r="R167" s="26"/>
@@ -13459,7 +13468,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="168" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:20" ht="405" x14ac:dyDescent="0.25">
       <c r="A168" s="20">
         <v>161</v>
       </c>
@@ -13470,41 +13479,41 @@
         <v>112</v>
       </c>
       <c r="D168" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="E168" s="22" t="s">
         <v>365</v>
-      </c>
-      <c r="E168" s="22" t="s">
-        <v>366</v>
       </c>
       <c r="F168" s="23">
         <v>45294</v>
       </c>
       <c r="G168" s="24" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="H168" s="24" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="I168" s="24" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="J168" s="25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K168" s="25"/>
       <c r="L168" s="25" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="M168" s="25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N168" s="25" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="O168" s="25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P168" s="25" t="s">
-        <v>857</v>
+        <v>884</v>
       </c>
       <c r="Q168" s="25"/>
       <c r="R168" s="26"/>
@@ -13524,20 +13533,20 @@
         <v>112</v>
       </c>
       <c r="D169" s="21" t="s">
+        <v>366</v>
+      </c>
+      <c r="E169" s="22" t="s">
         <v>367</v>
-      </c>
-      <c r="E169" s="22" t="s">
-        <v>368</v>
       </c>
       <c r="F169" s="23"/>
       <c r="G169" s="24"/>
       <c r="H169" s="24"/>
       <c r="I169" s="24"/>
       <c r="J169" s="25" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="K169" s="25" t="s">
-        <v>855</v>
+        <v>890</v>
       </c>
       <c r="L169" s="25"/>
       <c r="M169" s="25"/>
@@ -13562,20 +13571,20 @@
         <v>112</v>
       </c>
       <c r="D170" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="E170" s="22" t="s">
         <v>369</v>
-      </c>
-      <c r="E170" s="22" t="s">
-        <v>370</v>
       </c>
       <c r="F170" s="23"/>
       <c r="G170" s="24"/>
       <c r="H170" s="24"/>
       <c r="I170" s="24"/>
       <c r="J170" s="25" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="K170" s="25" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="L170" s="25"/>
       <c r="M170" s="25"/>
@@ -13600,20 +13609,20 @@
         <v>112</v>
       </c>
       <c r="D171" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="E171" s="22" t="s">
         <v>371</v>
-      </c>
-      <c r="E171" s="50" t="s">
-        <v>372</v>
       </c>
       <c r="F171" s="23"/>
       <c r="G171" s="24"/>
       <c r="H171" s="24"/>
       <c r="I171" s="24"/>
       <c r="J171" s="25" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="K171" s="25" t="s">
-        <v>881</v>
+        <v>889</v>
       </c>
       <c r="L171" s="25"/>
       <c r="M171" s="25"/>
@@ -13638,20 +13647,20 @@
         <v>112</v>
       </c>
       <c r="D172" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="E172" s="22" t="s">
         <v>373</v>
-      </c>
-      <c r="E172" s="50" t="s">
-        <v>374</v>
       </c>
       <c r="F172" s="23"/>
       <c r="G172" s="24"/>
       <c r="H172" s="24"/>
       <c r="I172" s="24"/>
       <c r="J172" s="25" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="K172" s="25" t="s">
-        <v>882</v>
+        <v>888</v>
       </c>
       <c r="L172" s="25"/>
       <c r="M172" s="25"/>
@@ -13676,20 +13685,20 @@
         <v>112</v>
       </c>
       <c r="D173" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="E173" s="22" t="s">
         <v>375</v>
-      </c>
-      <c r="E173" s="50" t="s">
-        <v>376</v>
       </c>
       <c r="F173" s="23"/>
       <c r="G173" s="24"/>
       <c r="H173" s="24"/>
       <c r="I173" s="24"/>
       <c r="J173" s="25" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="K173" s="25" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
       <c r="L173" s="25"/>
       <c r="M173" s="25"/>
@@ -13714,20 +13723,20 @@
         <v>112</v>
       </c>
       <c r="D174" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="E174" s="22" t="s">
         <v>377</v>
-      </c>
-      <c r="E174" s="50" t="s">
-        <v>378</v>
       </c>
       <c r="F174" s="23"/>
       <c r="G174" s="24"/>
       <c r="H174" s="24"/>
       <c r="I174" s="24"/>
       <c r="J174" s="25" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="K174" s="25" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="L174" s="25"/>
       <c r="M174" s="25"/>
@@ -13752,17 +13761,17 @@
         <v>112</v>
       </c>
       <c r="D175" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="E175" s="22" t="s">
         <v>379</v>
-      </c>
-      <c r="E175" s="50" t="s">
-        <v>380</v>
       </c>
       <c r="F175" s="23"/>
       <c r="G175" s="24"/>
       <c r="H175" s="24"/>
       <c r="I175" s="24"/>
       <c r="J175" s="25" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="K175" s="25" t="s">
         <v>885</v>
@@ -13790,20 +13799,20 @@
         <v>112</v>
       </c>
       <c r="D176" s="21" t="s">
+        <v>380</v>
+      </c>
+      <c r="E176" s="22" t="s">
         <v>381</v>
-      </c>
-      <c r="E176" s="50" t="s">
-        <v>382</v>
       </c>
       <c r="F176" s="23"/>
       <c r="G176" s="24"/>
       <c r="H176" s="24"/>
       <c r="I176" s="24"/>
       <c r="J176" s="25" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="K176" s="25" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="L176" s="25"/>
       <c r="M176" s="25"/>
@@ -13828,10 +13837,10 @@
         <v>107</v>
       </c>
       <c r="D177" s="21" t="s">
+        <v>382</v>
+      </c>
+      <c r="E177" s="22" t="s">
         <v>383</v>
-      </c>
-      <c r="E177" s="22" t="s">
-        <v>384</v>
       </c>
       <c r="F177" s="23"/>
       <c r="G177" s="24"/>
@@ -13862,10 +13871,10 @@
         <v>107</v>
       </c>
       <c r="D178" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="E178" s="22" t="s">
         <v>385</v>
-      </c>
-      <c r="E178" s="22" t="s">
-        <v>386</v>
       </c>
       <c r="F178" s="23"/>
       <c r="G178" s="24"/>
@@ -13896,10 +13905,10 @@
         <v>107</v>
       </c>
       <c r="D179" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="E179" s="22" t="s">
         <v>387</v>
-      </c>
-      <c r="E179" s="22" t="s">
-        <v>388</v>
       </c>
       <c r="F179" s="23"/>
       <c r="G179" s="24"/>
@@ -13930,10 +13939,10 @@
         <v>107</v>
       </c>
       <c r="D180" s="21" t="s">
+        <v>388</v>
+      </c>
+      <c r="E180" s="22" t="s">
         <v>389</v>
-      </c>
-      <c r="E180" s="22" t="s">
-        <v>390</v>
       </c>
       <c r="F180" s="23"/>
       <c r="G180" s="24"/>
@@ -13964,10 +13973,10 @@
         <v>107</v>
       </c>
       <c r="D181" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="E181" s="22" t="s">
         <v>391</v>
-      </c>
-      <c r="E181" s="22" t="s">
-        <v>392</v>
       </c>
       <c r="F181" s="23"/>
       <c r="G181" s="24"/>
@@ -13998,10 +14007,10 @@
         <v>107</v>
       </c>
       <c r="D182" s="21" t="s">
+        <v>392</v>
+      </c>
+      <c r="E182" s="22" t="s">
         <v>393</v>
-      </c>
-      <c r="E182" s="22" t="s">
-        <v>394</v>
       </c>
       <c r="F182" s="23"/>
       <c r="G182" s="24"/>
@@ -14032,10 +14041,10 @@
         <v>107</v>
       </c>
       <c r="D183" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="E183" s="22" t="s">
         <v>395</v>
-      </c>
-      <c r="E183" s="22" t="s">
-        <v>396</v>
       </c>
       <c r="F183" s="23"/>
       <c r="G183" s="24"/>
@@ -14066,10 +14075,10 @@
         <v>107</v>
       </c>
       <c r="D184" s="21" t="s">
+        <v>396</v>
+      </c>
+      <c r="E184" s="22" t="s">
         <v>397</v>
-      </c>
-      <c r="E184" s="22" t="s">
-        <v>398</v>
       </c>
       <c r="F184" s="23"/>
       <c r="G184" s="24"/>
@@ -14100,10 +14109,10 @@
         <v>107</v>
       </c>
       <c r="D185" s="21" t="s">
+        <v>398</v>
+      </c>
+      <c r="E185" s="22" t="s">
         <v>399</v>
-      </c>
-      <c r="E185" s="22" t="s">
-        <v>400</v>
       </c>
       <c r="F185" s="23"/>
       <c r="G185" s="24"/>
@@ -14134,10 +14143,10 @@
         <v>107</v>
       </c>
       <c r="D186" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="E186" s="22" t="s">
         <v>401</v>
-      </c>
-      <c r="E186" s="22" t="s">
-        <v>402</v>
       </c>
       <c r="F186" s="23"/>
       <c r="G186" s="24"/>
@@ -14168,10 +14177,10 @@
         <v>107</v>
       </c>
       <c r="D187" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="E187" s="22" t="s">
         <v>403</v>
-      </c>
-      <c r="E187" s="22" t="s">
-        <v>404</v>
       </c>
       <c r="F187" s="23"/>
       <c r="G187" s="24"/>
@@ -14202,10 +14211,10 @@
         <v>107</v>
       </c>
       <c r="D188" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="E188" s="22" t="s">
         <v>405</v>
-      </c>
-      <c r="E188" s="22" t="s">
-        <v>406</v>
       </c>
       <c r="F188" s="23"/>
       <c r="G188" s="24"/>
@@ -14236,10 +14245,10 @@
         <v>107</v>
       </c>
       <c r="D189" s="21" t="s">
+        <v>406</v>
+      </c>
+      <c r="E189" s="22" t="s">
         <v>407</v>
-      </c>
-      <c r="E189" s="22" t="s">
-        <v>408</v>
       </c>
       <c r="F189" s="23"/>
       <c r="G189" s="24"/>
@@ -14270,10 +14279,10 @@
         <v>107</v>
       </c>
       <c r="D190" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="E190" s="22" t="s">
         <v>409</v>
-      </c>
-      <c r="E190" s="22" t="s">
-        <v>410</v>
       </c>
       <c r="F190" s="23"/>
       <c r="G190" s="24"/>
@@ -14304,10 +14313,10 @@
         <v>107</v>
       </c>
       <c r="D191" s="21" t="s">
+        <v>410</v>
+      </c>
+      <c r="E191" s="22" t="s">
         <v>411</v>
-      </c>
-      <c r="E191" s="22" t="s">
-        <v>412</v>
       </c>
       <c r="F191" s="23"/>
       <c r="G191" s="24"/>
@@ -14338,10 +14347,10 @@
         <v>107</v>
       </c>
       <c r="D192" s="21" t="s">
+        <v>412</v>
+      </c>
+      <c r="E192" s="22" t="s">
         <v>413</v>
-      </c>
-      <c r="E192" s="22" t="s">
-        <v>414</v>
       </c>
       <c r="F192" s="23"/>
       <c r="G192" s="24"/>
@@ -14372,10 +14381,10 @@
         <v>107</v>
       </c>
       <c r="D193" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="E193" s="22" t="s">
         <v>415</v>
-      </c>
-      <c r="E193" s="22" t="s">
-        <v>416</v>
       </c>
       <c r="F193" s="23"/>
       <c r="G193" s="24"/>
@@ -14406,10 +14415,10 @@
         <v>107</v>
       </c>
       <c r="D194" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="E194" s="22" t="s">
         <v>417</v>
-      </c>
-      <c r="E194" s="22" t="s">
-        <v>418</v>
       </c>
       <c r="F194" s="23"/>
       <c r="G194" s="24"/>
@@ -14440,10 +14449,10 @@
         <v>107</v>
       </c>
       <c r="D195" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="E195" s="22" t="s">
         <v>419</v>
-      </c>
-      <c r="E195" s="22" t="s">
-        <v>420</v>
       </c>
       <c r="F195" s="23"/>
       <c r="G195" s="24"/>
@@ -14474,10 +14483,10 @@
         <v>107</v>
       </c>
       <c r="D196" s="21" t="s">
+        <v>420</v>
+      </c>
+      <c r="E196" s="22" t="s">
         <v>421</v>
-      </c>
-      <c r="E196" s="22" t="s">
-        <v>422</v>
       </c>
       <c r="F196" s="23"/>
       <c r="G196" s="24"/>
@@ -14508,10 +14517,10 @@
         <v>107</v>
       </c>
       <c r="D197" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="E197" s="22" t="s">
         <v>423</v>
-      </c>
-      <c r="E197" s="22" t="s">
-        <v>424</v>
       </c>
       <c r="F197" s="23"/>
       <c r="G197" s="24"/>
@@ -14542,10 +14551,10 @@
         <v>45</v>
       </c>
       <c r="D198" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="E198" s="22" t="s">
         <v>425</v>
-      </c>
-      <c r="E198" s="22" t="s">
-        <v>426</v>
       </c>
       <c r="F198" s="23"/>
       <c r="G198" s="24"/>
@@ -14570,16 +14579,16 @@
         <v>192</v>
       </c>
       <c r="B199" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C199" s="21" t="s">
         <v>45</v>
       </c>
       <c r="D199" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="E199" s="22" t="s">
         <v>428</v>
-      </c>
-      <c r="E199" s="22" t="s">
-        <v>429</v>
       </c>
       <c r="F199" s="23"/>
       <c r="G199" s="24"/>
@@ -14604,16 +14613,16 @@
         <v>193</v>
       </c>
       <c r="B200" s="21" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C200" s="21" t="s">
         <v>45</v>
       </c>
       <c r="D200" s="21" t="s">
+        <v>430</v>
+      </c>
+      <c r="E200" s="22" t="s">
         <v>431</v>
-      </c>
-      <c r="E200" s="22" t="s">
-        <v>432</v>
       </c>
       <c r="F200" s="23"/>
       <c r="G200" s="24"/>
@@ -14638,16 +14647,16 @@
         <v>194</v>
       </c>
       <c r="B201" s="21" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C201" s="21" t="s">
         <v>45</v>
       </c>
       <c r="D201" s="21" t="s">
+        <v>433</v>
+      </c>
+      <c r="E201" s="22" t="s">
         <v>434</v>
-      </c>
-      <c r="E201" s="22" t="s">
-        <v>435</v>
       </c>
       <c r="F201" s="23"/>
       <c r="G201" s="24"/>
@@ -14672,16 +14681,16 @@
         <v>195</v>
       </c>
       <c r="B202" s="21" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C202" s="21" t="s">
         <v>45</v>
       </c>
       <c r="D202" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="E202" s="22" t="s">
         <v>437</v>
-      </c>
-      <c r="E202" s="22" t="s">
-        <v>438</v>
       </c>
       <c r="F202" s="23"/>
       <c r="G202" s="24"/>
@@ -14706,16 +14715,16 @@
         <v>196</v>
       </c>
       <c r="B203" s="21" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C203" s="21" t="s">
         <v>45</v>
       </c>
       <c r="D203" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="E203" s="22" t="s">
         <v>440</v>
-      </c>
-      <c r="E203" s="22" t="s">
-        <v>441</v>
       </c>
       <c r="F203" s="23"/>
       <c r="G203" s="24"/>
@@ -14740,16 +14749,16 @@
         <v>197</v>
       </c>
       <c r="B204" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C204" s="21" t="s">
         <v>45</v>
       </c>
       <c r="D204" s="21" t="s">
+        <v>441</v>
+      </c>
+      <c r="E204" s="22" t="s">
         <v>442</v>
-      </c>
-      <c r="E204" s="22" t="s">
-        <v>443</v>
       </c>
       <c r="F204" s="23"/>
       <c r="G204" s="24"/>
@@ -14774,16 +14783,16 @@
         <v>198</v>
       </c>
       <c r="B205" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C205" s="21" t="s">
         <v>45</v>
       </c>
       <c r="D205" s="21" t="s">
+        <v>443</v>
+      </c>
+      <c r="E205" s="22" t="s">
         <v>444</v>
-      </c>
-      <c r="E205" s="22" t="s">
-        <v>445</v>
       </c>
       <c r="F205" s="23"/>
       <c r="G205" s="24"/>
@@ -14808,16 +14817,16 @@
         <v>199</v>
       </c>
       <c r="B206" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C206" s="21" t="s">
         <v>45</v>
       </c>
       <c r="D206" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="E206" s="22" t="s">
         <v>446</v>
-      </c>
-      <c r="E206" s="22" t="s">
-        <v>447</v>
       </c>
       <c r="F206" s="23"/>
       <c r="G206" s="24"/>
@@ -14842,16 +14851,16 @@
         <v>200</v>
       </c>
       <c r="B207" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C207" s="21" t="s">
         <v>45</v>
       </c>
       <c r="D207" s="21" t="s">
+        <v>447</v>
+      </c>
+      <c r="E207" s="22" t="s">
         <v>448</v>
-      </c>
-      <c r="E207" s="22" t="s">
-        <v>449</v>
       </c>
       <c r="F207" s="23"/>
       <c r="G207" s="24"/>
@@ -14876,16 +14885,16 @@
         <v>201</v>
       </c>
       <c r="B208" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C208" s="21" t="s">
         <v>45</v>
       </c>
       <c r="D208" s="21" t="s">
+        <v>449</v>
+      </c>
+      <c r="E208" s="22" t="s">
         <v>450</v>
-      </c>
-      <c r="E208" s="22" t="s">
-        <v>451</v>
       </c>
       <c r="F208" s="23"/>
       <c r="G208" s="24"/>
@@ -14910,16 +14919,16 @@
         <v>202</v>
       </c>
       <c r="B209" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C209" s="21" t="s">
         <v>45</v>
       </c>
       <c r="D209" s="21" t="s">
+        <v>451</v>
+      </c>
+      <c r="E209" s="22" t="s">
         <v>452</v>
-      </c>
-      <c r="E209" s="22" t="s">
-        <v>453</v>
       </c>
       <c r="F209" s="23"/>
       <c r="G209" s="24"/>
@@ -14944,16 +14953,16 @@
         <v>203</v>
       </c>
       <c r="B210" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C210" s="21" t="s">
         <v>45</v>
       </c>
       <c r="D210" s="21" t="s">
+        <v>453</v>
+      </c>
+      <c r="E210" s="22" t="s">
         <v>454</v>
-      </c>
-      <c r="E210" s="22" t="s">
-        <v>455</v>
       </c>
       <c r="F210" s="23"/>
       <c r="G210" s="24"/>
@@ -14978,16 +14987,16 @@
         <v>204</v>
       </c>
       <c r="B211" s="21" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C211" s="21" t="s">
         <v>45</v>
       </c>
       <c r="D211" s="21" t="s">
+        <v>455</v>
+      </c>
+      <c r="E211" s="22" t="s">
         <v>456</v>
-      </c>
-      <c r="E211" s="22" t="s">
-        <v>457</v>
       </c>
       <c r="F211" s="23"/>
       <c r="G211" s="24"/>
@@ -15012,16 +15021,16 @@
         <v>205</v>
       </c>
       <c r="B212" s="21" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C212" s="21" t="s">
         <v>45</v>
       </c>
       <c r="D212" s="21" t="s">
+        <v>457</v>
+      </c>
+      <c r="E212" s="22" t="s">
         <v>458</v>
-      </c>
-      <c r="E212" s="22" t="s">
-        <v>459</v>
       </c>
       <c r="F212" s="23"/>
       <c r="G212" s="24"/>
@@ -15046,16 +15055,16 @@
         <v>206</v>
       </c>
       <c r="B213" s="21" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C213" s="21" t="s">
         <v>45</v>
       </c>
       <c r="D213" s="21" t="s">
+        <v>459</v>
+      </c>
+      <c r="E213" s="22" t="s">
         <v>460</v>
-      </c>
-      <c r="E213" s="22" t="s">
-        <v>461</v>
       </c>
       <c r="F213" s="23"/>
       <c r="G213" s="24"/>
@@ -15080,16 +15089,16 @@
         <v>207</v>
       </c>
       <c r="B214" s="21" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C214" s="21" t="s">
         <v>45</v>
       </c>
       <c r="D214" s="21" t="s">
+        <v>461</v>
+      </c>
+      <c r="E214" s="22" t="s">
         <v>462</v>
-      </c>
-      <c r="E214" s="22" t="s">
-        <v>463</v>
       </c>
       <c r="F214" s="23"/>
       <c r="G214" s="24"/>
@@ -15114,16 +15123,16 @@
         <v>208</v>
       </c>
       <c r="B215" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C215" s="21" t="s">
         <v>57</v>
       </c>
       <c r="D215" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="E215" s="22" t="s">
         <v>464</v>
-      </c>
-      <c r="E215" s="22" t="s">
-        <v>465</v>
       </c>
       <c r="F215" s="23"/>
       <c r="G215" s="24"/>
@@ -15148,16 +15157,16 @@
         <v>209</v>
       </c>
       <c r="B216" s="21" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C216" s="21" t="s">
         <v>57</v>
       </c>
       <c r="D216" s="21" t="s">
+        <v>465</v>
+      </c>
+      <c r="E216" s="22" t="s">
         <v>466</v>
-      </c>
-      <c r="E216" s="22" t="s">
-        <v>467</v>
       </c>
       <c r="F216" s="23"/>
       <c r="G216" s="24"/>
@@ -15182,16 +15191,16 @@
         <v>210</v>
       </c>
       <c r="B217" s="21" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C217" s="21" t="s">
         <v>57</v>
       </c>
       <c r="D217" s="21" t="s">
+        <v>467</v>
+      </c>
+      <c r="E217" s="22" t="s">
         <v>468</v>
-      </c>
-      <c r="E217" s="22" t="s">
-        <v>469</v>
       </c>
       <c r="F217" s="23"/>
       <c r="G217" s="24"/>
@@ -15216,16 +15225,16 @@
         <v>211</v>
       </c>
       <c r="B218" s="21" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C218" s="21" t="s">
         <v>57</v>
       </c>
       <c r="D218" s="21" t="s">
+        <v>469</v>
+      </c>
+      <c r="E218" s="22" t="s">
         <v>470</v>
-      </c>
-      <c r="E218" s="22" t="s">
-        <v>471</v>
       </c>
       <c r="F218" s="23"/>
       <c r="G218" s="24"/>
@@ -15250,16 +15259,16 @@
         <v>212</v>
       </c>
       <c r="B219" s="21" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C219" s="21" t="s">
         <v>57</v>
       </c>
       <c r="D219" s="21" t="s">
+        <v>471</v>
+      </c>
+      <c r="E219" s="22" t="s">
         <v>472</v>
-      </c>
-      <c r="E219" s="22" t="s">
-        <v>473</v>
       </c>
       <c r="F219" s="23"/>
       <c r="G219" s="24"/>
@@ -15284,16 +15293,16 @@
         <v>213</v>
       </c>
       <c r="B220" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C220" s="21" t="s">
         <v>57</v>
       </c>
       <c r="D220" s="21" t="s">
+        <v>473</v>
+      </c>
+      <c r="E220" s="22" t="s">
         <v>474</v>
-      </c>
-      <c r="E220" s="22" t="s">
-        <v>475</v>
       </c>
       <c r="F220" s="23"/>
       <c r="G220" s="24"/>
@@ -15318,16 +15327,16 @@
         <v>214</v>
       </c>
       <c r="B221" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C221" s="21" t="s">
         <v>57</v>
       </c>
       <c r="D221" s="21" t="s">
+        <v>475</v>
+      </c>
+      <c r="E221" s="22" t="s">
         <v>476</v>
-      </c>
-      <c r="E221" s="22" t="s">
-        <v>477</v>
       </c>
       <c r="F221" s="23"/>
       <c r="G221" s="24"/>
@@ -15352,16 +15361,16 @@
         <v>215</v>
       </c>
       <c r="B222" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C222" s="21" t="s">
         <v>57</v>
       </c>
       <c r="D222" s="21" t="s">
+        <v>477</v>
+      </c>
+      <c r="E222" s="22" t="s">
         <v>478</v>
-      </c>
-      <c r="E222" s="22" t="s">
-        <v>479</v>
       </c>
       <c r="F222" s="23"/>
       <c r="G222" s="24"/>
@@ -15386,16 +15395,16 @@
         <v>216</v>
       </c>
       <c r="B223" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C223" s="21" t="s">
         <v>57</v>
       </c>
       <c r="D223" s="21" t="s">
+        <v>479</v>
+      </c>
+      <c r="E223" s="22" t="s">
         <v>480</v>
-      </c>
-      <c r="E223" s="22" t="s">
-        <v>481</v>
       </c>
       <c r="F223" s="23"/>
       <c r="G223" s="24"/>
@@ -15420,16 +15429,16 @@
         <v>217</v>
       </c>
       <c r="B224" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C224" s="21" t="s">
         <v>57</v>
       </c>
       <c r="D224" s="21" t="s">
+        <v>481</v>
+      </c>
+      <c r="E224" s="22" t="s">
         <v>482</v>
-      </c>
-      <c r="E224" s="22" t="s">
-        <v>483</v>
       </c>
       <c r="F224" s="23"/>
       <c r="G224" s="24"/>
@@ -15454,16 +15463,16 @@
         <v>218</v>
       </c>
       <c r="B225" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C225" s="21" t="s">
         <v>57</v>
       </c>
       <c r="D225" s="21" t="s">
+        <v>483</v>
+      </c>
+      <c r="E225" s="22" t="s">
         <v>484</v>
-      </c>
-      <c r="E225" s="22" t="s">
-        <v>485</v>
       </c>
       <c r="F225" s="23"/>
       <c r="G225" s="24"/>
@@ -15488,16 +15497,16 @@
         <v>219</v>
       </c>
       <c r="B226" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C226" s="21" t="s">
         <v>57</v>
       </c>
       <c r="D226" s="21" t="s">
+        <v>485</v>
+      </c>
+      <c r="E226" s="22" t="s">
         <v>486</v>
-      </c>
-      <c r="E226" s="22" t="s">
-        <v>487</v>
       </c>
       <c r="F226" s="23"/>
       <c r="G226" s="24"/>
@@ -15522,16 +15531,16 @@
         <v>220</v>
       </c>
       <c r="B227" s="21" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C227" s="21" t="s">
         <v>57</v>
       </c>
       <c r="D227" s="21" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E227" s="22" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F227" s="23"/>
       <c r="G227" s="24"/>
@@ -15556,16 +15565,16 @@
         <v>221</v>
       </c>
       <c r="B228" s="21" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C228" s="21" t="s">
         <v>57</v>
       </c>
       <c r="D228" s="21" t="s">
+        <v>488</v>
+      </c>
+      <c r="E228" s="22" t="s">
         <v>489</v>
-      </c>
-      <c r="E228" s="22" t="s">
-        <v>490</v>
       </c>
       <c r="F228" s="23"/>
       <c r="G228" s="24"/>
@@ -15590,16 +15599,16 @@
         <v>222</v>
       </c>
       <c r="B229" s="21" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C229" s="21" t="s">
         <v>57</v>
       </c>
       <c r="D229" s="21" t="s">
+        <v>490</v>
+      </c>
+      <c r="E229" s="22" t="s">
         <v>491</v>
-      </c>
-      <c r="E229" s="22" t="s">
-        <v>492</v>
       </c>
       <c r="F229" s="23"/>
       <c r="G229" s="24"/>
@@ -15624,16 +15633,16 @@
         <v>223</v>
       </c>
       <c r="B230" s="21" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C230" s="21" t="s">
         <v>57</v>
       </c>
       <c r="D230" s="21" t="s">
+        <v>492</v>
+      </c>
+      <c r="E230" s="22" t="s">
         <v>493</v>
-      </c>
-      <c r="E230" s="22" t="s">
-        <v>494</v>
       </c>
       <c r="F230" s="23"/>
       <c r="G230" s="24"/>
@@ -15658,16 +15667,16 @@
         <v>224</v>
       </c>
       <c r="B231" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C231" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D231" s="21" t="s">
+        <v>494</v>
+      </c>
+      <c r="E231" s="22" t="s">
         <v>495</v>
-      </c>
-      <c r="E231" s="22" t="s">
-        <v>496</v>
       </c>
       <c r="F231" s="23"/>
       <c r="G231" s="24"/>
@@ -15692,16 +15701,16 @@
         <v>225</v>
       </c>
       <c r="B232" s="21" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C232" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D232" s="21" t="s">
+        <v>496</v>
+      </c>
+      <c r="E232" s="22" t="s">
         <v>497</v>
-      </c>
-      <c r="E232" s="22" t="s">
-        <v>498</v>
       </c>
       <c r="F232" s="23"/>
       <c r="G232" s="24"/>
@@ -15726,16 +15735,16 @@
         <v>226</v>
       </c>
       <c r="B233" s="21" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C233" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D233" s="21" t="s">
+        <v>498</v>
+      </c>
+      <c r="E233" s="22" t="s">
         <v>499</v>
-      </c>
-      <c r="E233" s="22" t="s">
-        <v>500</v>
       </c>
       <c r="F233" s="23"/>
       <c r="G233" s="24"/>
@@ -15760,16 +15769,16 @@
         <v>227</v>
       </c>
       <c r="B234" s="21" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C234" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D234" s="21" t="s">
+        <v>500</v>
+      </c>
+      <c r="E234" s="22" t="s">
         <v>501</v>
-      </c>
-      <c r="E234" s="22" t="s">
-        <v>502</v>
       </c>
       <c r="F234" s="23"/>
       <c r="G234" s="24"/>
@@ -15794,16 +15803,16 @@
         <v>228</v>
       </c>
       <c r="B235" s="21" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C235" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D235" s="21" t="s">
+        <v>502</v>
+      </c>
+      <c r="E235" s="22" t="s">
         <v>503</v>
-      </c>
-      <c r="E235" s="22" t="s">
-        <v>504</v>
       </c>
       <c r="F235" s="23"/>
       <c r="G235" s="24"/>
@@ -15828,16 +15837,16 @@
         <v>229</v>
       </c>
       <c r="B236" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C236" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D236" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="E236" s="22" t="s">
         <v>505</v>
-      </c>
-      <c r="E236" s="22" t="s">
-        <v>506</v>
       </c>
       <c r="F236" s="23"/>
       <c r="G236" s="24"/>
@@ -15862,16 +15871,16 @@
         <v>230</v>
       </c>
       <c r="B237" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C237" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D237" s="21" t="s">
+        <v>506</v>
+      </c>
+      <c r="E237" s="22" t="s">
         <v>507</v>
-      </c>
-      <c r="E237" s="22" t="s">
-        <v>508</v>
       </c>
       <c r="F237" s="23"/>
       <c r="G237" s="24"/>
@@ -15896,16 +15905,16 @@
         <v>231</v>
       </c>
       <c r="B238" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C238" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D238" s="21" t="s">
+        <v>508</v>
+      </c>
+      <c r="E238" s="22" t="s">
         <v>509</v>
-      </c>
-      <c r="E238" s="22" t="s">
-        <v>510</v>
       </c>
       <c r="F238" s="23"/>
       <c r="G238" s="24"/>
@@ -15930,16 +15939,16 @@
         <v>232</v>
       </c>
       <c r="B239" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C239" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D239" s="21" t="s">
+        <v>510</v>
+      </c>
+      <c r="E239" s="22" t="s">
         <v>511</v>
-      </c>
-      <c r="E239" s="22" t="s">
-        <v>512</v>
       </c>
       <c r="F239" s="23"/>
       <c r="G239" s="24"/>
@@ -15964,16 +15973,16 @@
         <v>233</v>
       </c>
       <c r="B240" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C240" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D240" s="21" t="s">
+        <v>512</v>
+      </c>
+      <c r="E240" s="22" t="s">
         <v>513</v>
-      </c>
-      <c r="E240" s="22" t="s">
-        <v>514</v>
       </c>
       <c r="F240" s="23"/>
       <c r="G240" s="24"/>
@@ -15998,16 +16007,16 @@
         <v>234</v>
       </c>
       <c r="B241" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C241" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D241" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="E241" s="22" t="s">
         <v>515</v>
-      </c>
-      <c r="E241" s="22" t="s">
-        <v>516</v>
       </c>
       <c r="F241" s="23"/>
       <c r="G241" s="24"/>
@@ -16032,16 +16041,16 @@
         <v>235</v>
       </c>
       <c r="B242" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C242" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D242" s="21" t="s">
+        <v>516</v>
+      </c>
+      <c r="E242" s="22" t="s">
         <v>517</v>
-      </c>
-      <c r="E242" s="22" t="s">
-        <v>518</v>
       </c>
       <c r="F242" s="23"/>
       <c r="G242" s="24"/>
@@ -16066,16 +16075,16 @@
         <v>236</v>
       </c>
       <c r="B243" s="21" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C243" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D243" s="21" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E243" s="22" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F243" s="23"/>
       <c r="G243" s="24"/>
@@ -16100,16 +16109,16 @@
         <v>237</v>
       </c>
       <c r="B244" s="21" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C244" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D244" s="21" t="s">
+        <v>519</v>
+      </c>
+      <c r="E244" s="22" t="s">
         <v>520</v>
-      </c>
-      <c r="E244" s="22" t="s">
-        <v>521</v>
       </c>
       <c r="F244" s="23"/>
       <c r="G244" s="24"/>
@@ -16134,16 +16143,16 @@
         <v>238</v>
       </c>
       <c r="B245" s="21" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C245" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D245" s="21" t="s">
+        <v>521</v>
+      </c>
+      <c r="E245" s="22" t="s">
         <v>522</v>
-      </c>
-      <c r="E245" s="22" t="s">
-        <v>523</v>
       </c>
       <c r="F245" s="23"/>
       <c r="G245" s="24"/>
@@ -16168,16 +16177,16 @@
         <v>239</v>
       </c>
       <c r="B246" s="21" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C246" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D246" s="21" t="s">
+        <v>523</v>
+      </c>
+      <c r="E246" s="22" t="s">
         <v>524</v>
-      </c>
-      <c r="E246" s="22" t="s">
-        <v>525</v>
       </c>
       <c r="F246" s="23"/>
       <c r="G246" s="24"/>
@@ -16202,16 +16211,16 @@
         <v>240</v>
       </c>
       <c r="B247" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C247" s="21" t="s">
         <v>75</v>
       </c>
       <c r="D247" s="21" t="s">
+        <v>525</v>
+      </c>
+      <c r="E247" s="22" t="s">
         <v>526</v>
-      </c>
-      <c r="E247" s="22" t="s">
-        <v>527</v>
       </c>
       <c r="F247" s="23"/>
       <c r="G247" s="24"/>
@@ -16236,16 +16245,16 @@
         <v>241</v>
       </c>
       <c r="B248" s="21" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C248" s="21" t="s">
         <v>75</v>
       </c>
       <c r="D248" s="21" t="s">
+        <v>527</v>
+      </c>
+      <c r="E248" s="22" t="s">
         <v>528</v>
-      </c>
-      <c r="E248" s="22" t="s">
-        <v>529</v>
       </c>
       <c r="F248" s="23"/>
       <c r="G248" s="24"/>
@@ -16270,16 +16279,16 @@
         <v>242</v>
       </c>
       <c r="B249" s="21" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C249" s="21" t="s">
         <v>75</v>
       </c>
       <c r="D249" s="21" t="s">
+        <v>529</v>
+      </c>
+      <c r="E249" s="22" t="s">
         <v>530</v>
-      </c>
-      <c r="E249" s="22" t="s">
-        <v>531</v>
       </c>
       <c r="F249" s="23"/>
       <c r="G249" s="24"/>
@@ -16304,16 +16313,16 @@
         <v>243</v>
       </c>
       <c r="B250" s="21" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C250" s="21" t="s">
         <v>75</v>
       </c>
       <c r="D250" s="21" t="s">
+        <v>531</v>
+      </c>
+      <c r="E250" s="22" t="s">
         <v>532</v>
-      </c>
-      <c r="E250" s="22" t="s">
-        <v>533</v>
       </c>
       <c r="F250" s="23"/>
       <c r="G250" s="24"/>
@@ -16338,16 +16347,16 @@
         <v>244</v>
       </c>
       <c r="B251" s="21" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C251" s="21" t="s">
         <v>75</v>
       </c>
       <c r="D251" s="21" t="s">
+        <v>533</v>
+      </c>
+      <c r="E251" s="22" t="s">
         <v>534</v>
-      </c>
-      <c r="E251" s="22" t="s">
-        <v>535</v>
       </c>
       <c r="F251" s="23"/>
       <c r="G251" s="24"/>
@@ -16372,16 +16381,16 @@
         <v>245</v>
       </c>
       <c r="B252" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C252" s="21" t="s">
         <v>75</v>
       </c>
       <c r="D252" s="21" t="s">
+        <v>535</v>
+      </c>
+      <c r="E252" s="22" t="s">
         <v>536</v>
-      </c>
-      <c r="E252" s="22" t="s">
-        <v>537</v>
       </c>
       <c r="F252" s="23"/>
       <c r="G252" s="24"/>
@@ -16406,16 +16415,16 @@
         <v>246</v>
       </c>
       <c r="B253" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C253" s="21" t="s">
         <v>75</v>
       </c>
       <c r="D253" s="21" t="s">
+        <v>537</v>
+      </c>
+      <c r="E253" s="22" t="s">
         <v>538</v>
-      </c>
-      <c r="E253" s="22" t="s">
-        <v>539</v>
       </c>
       <c r="F253" s="23"/>
       <c r="G253" s="24"/>
@@ -16440,16 +16449,16 @@
         <v>247</v>
       </c>
       <c r="B254" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C254" s="21" t="s">
         <v>75</v>
       </c>
       <c r="D254" s="21" t="s">
+        <v>539</v>
+      </c>
+      <c r="E254" s="22" t="s">
         <v>540</v>
-      </c>
-      <c r="E254" s="22" t="s">
-        <v>541</v>
       </c>
       <c r="F254" s="23"/>
       <c r="G254" s="24"/>
@@ -16474,16 +16483,16 @@
         <v>248</v>
       </c>
       <c r="B255" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C255" s="21" t="s">
         <v>75</v>
       </c>
       <c r="D255" s="21" t="s">
+        <v>541</v>
+      </c>
+      <c r="E255" s="22" t="s">
         <v>542</v>
-      </c>
-      <c r="E255" s="22" t="s">
-        <v>543</v>
       </c>
       <c r="F255" s="23"/>
       <c r="G255" s="24"/>
@@ -16508,16 +16517,16 @@
         <v>249</v>
       </c>
       <c r="B256" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C256" s="21" t="s">
         <v>75</v>
       </c>
       <c r="D256" s="21" t="s">
+        <v>543</v>
+      </c>
+      <c r="E256" s="22" t="s">
         <v>544</v>
-      </c>
-      <c r="E256" s="22" t="s">
-        <v>545</v>
       </c>
       <c r="F256" s="23"/>
       <c r="G256" s="24"/>
@@ -16542,16 +16551,16 @@
         <v>250</v>
       </c>
       <c r="B257" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C257" s="21" t="s">
         <v>75</v>
       </c>
       <c r="D257" s="21" t="s">
+        <v>545</v>
+      </c>
+      <c r="E257" s="22" t="s">
         <v>546</v>
-      </c>
-      <c r="E257" s="22" t="s">
-        <v>547</v>
       </c>
       <c r="F257" s="23"/>
       <c r="G257" s="24"/>
@@ -16576,16 +16585,16 @@
         <v>251</v>
       </c>
       <c r="B258" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C258" s="21" t="s">
         <v>75</v>
       </c>
       <c r="D258" s="21" t="s">
+        <v>547</v>
+      </c>
+      <c r="E258" s="22" t="s">
         <v>548</v>
-      </c>
-      <c r="E258" s="22" t="s">
-        <v>549</v>
       </c>
       <c r="F258" s="23"/>
       <c r="G258" s="24"/>
@@ -16610,16 +16619,16 @@
         <v>252</v>
       </c>
       <c r="B259" s="21" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C259" s="21" t="s">
         <v>75</v>
       </c>
       <c r="D259" s="21" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E259" s="22" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F259" s="23"/>
       <c r="G259" s="24"/>
@@ -16644,16 +16653,16 @@
         <v>253</v>
       </c>
       <c r="B260" s="21" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C260" s="21" t="s">
         <v>75</v>
       </c>
       <c r="D260" s="21" t="s">
+        <v>550</v>
+      </c>
+      <c r="E260" s="22" t="s">
         <v>551</v>
-      </c>
-      <c r="E260" s="22" t="s">
-        <v>552</v>
       </c>
       <c r="F260" s="23"/>
       <c r="G260" s="24"/>
@@ -16678,16 +16687,16 @@
         <v>254</v>
       </c>
       <c r="B261" s="21" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C261" s="21" t="s">
         <v>75</v>
       </c>
       <c r="D261" s="21" t="s">
+        <v>552</v>
+      </c>
+      <c r="E261" s="22" t="s">
         <v>553</v>
-      </c>
-      <c r="E261" s="22" t="s">
-        <v>554</v>
       </c>
       <c r="F261" s="23"/>
       <c r="G261" s="24"/>
@@ -16712,16 +16721,16 @@
         <v>255</v>
       </c>
       <c r="B262" s="21" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C262" s="21" t="s">
         <v>75</v>
       </c>
       <c r="D262" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="E262" s="22" t="s">
         <v>555</v>
-      </c>
-      <c r="E262" s="22" t="s">
-        <v>556</v>
       </c>
       <c r="F262" s="23"/>
       <c r="G262" s="24"/>
@@ -16746,16 +16755,16 @@
         <v>256</v>
       </c>
       <c r="B263" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C263" s="21" t="s">
         <v>84</v>
       </c>
       <c r="D263" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="E263" s="22" t="s">
         <v>557</v>
-      </c>
-      <c r="E263" s="22" t="s">
-        <v>558</v>
       </c>
       <c r="F263" s="23"/>
       <c r="G263" s="24"/>
@@ -16780,16 +16789,16 @@
         <v>257</v>
       </c>
       <c r="B264" s="21" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C264" s="21" t="s">
         <v>84</v>
       </c>
       <c r="D264" s="21" t="s">
+        <v>558</v>
+      </c>
+      <c r="E264" s="22" t="s">
         <v>559</v>
-      </c>
-      <c r="E264" s="22" t="s">
-        <v>560</v>
       </c>
       <c r="F264" s="23"/>
       <c r="G264" s="24"/>
@@ -16814,16 +16823,16 @@
         <v>258</v>
       </c>
       <c r="B265" s="21" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C265" s="21" t="s">
         <v>84</v>
       </c>
       <c r="D265" s="21" t="s">
+        <v>560</v>
+      </c>
+      <c r="E265" s="22" t="s">
         <v>561</v>
-      </c>
-      <c r="E265" s="22" t="s">
-        <v>562</v>
       </c>
       <c r="F265" s="23"/>
       <c r="G265" s="24"/>
@@ -16848,16 +16857,16 @@
         <v>259</v>
       </c>
       <c r="B266" s="21" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C266" s="21" t="s">
         <v>84</v>
       </c>
       <c r="D266" s="21" t="s">
+        <v>562</v>
+      </c>
+      <c r="E266" s="22" t="s">
         <v>563</v>
-      </c>
-      <c r="E266" s="22" t="s">
-        <v>564</v>
       </c>
       <c r="F266" s="23"/>
       <c r="G266" s="24"/>
@@ -16882,16 +16891,16 @@
         <v>260</v>
       </c>
       <c r="B267" s="21" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C267" s="21" t="s">
         <v>84</v>
       </c>
       <c r="D267" s="21" t="s">
+        <v>564</v>
+      </c>
+      <c r="E267" s="22" t="s">
         <v>565</v>
-      </c>
-      <c r="E267" s="22" t="s">
-        <v>566</v>
       </c>
       <c r="F267" s="23"/>
       <c r="G267" s="24"/>
@@ -16916,16 +16925,16 @@
         <v>261</v>
       </c>
       <c r="B268" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C268" s="21" t="s">
         <v>84</v>
       </c>
       <c r="D268" s="21" t="s">
+        <v>566</v>
+      </c>
+      <c r="E268" s="22" t="s">
         <v>567</v>
-      </c>
-      <c r="E268" s="22" t="s">
-        <v>568</v>
       </c>
       <c r="F268" s="23"/>
       <c r="G268" s="24"/>
@@ -16950,16 +16959,16 @@
         <v>262</v>
       </c>
       <c r="B269" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C269" s="21" t="s">
         <v>84</v>
       </c>
       <c r="D269" s="21" t="s">
+        <v>568</v>
+      </c>
+      <c r="E269" s="22" t="s">
         <v>569</v>
-      </c>
-      <c r="E269" s="22" t="s">
-        <v>570</v>
       </c>
       <c r="F269" s="23"/>
       <c r="G269" s="24"/>
@@ -16984,16 +16993,16 @@
         <v>263</v>
       </c>
       <c r="B270" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C270" s="21" t="s">
         <v>84</v>
       </c>
       <c r="D270" s="21" t="s">
+        <v>570</v>
+      </c>
+      <c r="E270" s="22" t="s">
         <v>571</v>
-      </c>
-      <c r="E270" s="22" t="s">
-        <v>572</v>
       </c>
       <c r="F270" s="23"/>
       <c r="G270" s="24"/>
@@ -17018,16 +17027,16 @@
         <v>264</v>
       </c>
       <c r="B271" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C271" s="21" t="s">
         <v>84</v>
       </c>
       <c r="D271" s="21" t="s">
+        <v>572</v>
+      </c>
+      <c r="E271" s="22" t="s">
         <v>573</v>
-      </c>
-      <c r="E271" s="22" t="s">
-        <v>574</v>
       </c>
       <c r="F271" s="23"/>
       <c r="G271" s="24"/>
@@ -17052,16 +17061,16 @@
         <v>265</v>
       </c>
       <c r="B272" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C272" s="21" t="s">
         <v>84</v>
       </c>
       <c r="D272" s="21" t="s">
+        <v>574</v>
+      </c>
+      <c r="E272" s="22" t="s">
         <v>575</v>
-      </c>
-      <c r="E272" s="22" t="s">
-        <v>576</v>
       </c>
       <c r="F272" s="23"/>
       <c r="G272" s="24"/>
@@ -17086,16 +17095,16 @@
         <v>266</v>
       </c>
       <c r="B273" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C273" s="21" t="s">
         <v>84</v>
       </c>
       <c r="D273" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="E273" s="22" t="s">
         <v>577</v>
-      </c>
-      <c r="E273" s="22" t="s">
-        <v>578</v>
       </c>
       <c r="F273" s="23"/>
       <c r="G273" s="24"/>
@@ -17120,16 +17129,16 @@
         <v>267</v>
       </c>
       <c r="B274" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C274" s="21" t="s">
         <v>84</v>
       </c>
       <c r="D274" s="21" t="s">
+        <v>578</v>
+      </c>
+      <c r="E274" s="22" t="s">
         <v>579</v>
-      </c>
-      <c r="E274" s="22" t="s">
-        <v>580</v>
       </c>
       <c r="F274" s="23"/>
       <c r="G274" s="24"/>
@@ -17154,16 +17163,16 @@
         <v>268</v>
       </c>
       <c r="B275" s="21" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C275" s="21" t="s">
         <v>84</v>
       </c>
       <c r="D275" s="21" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E275" s="22" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F275" s="23"/>
       <c r="G275" s="24"/>
@@ -17188,16 +17197,16 @@
         <v>269</v>
       </c>
       <c r="B276" s="21" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C276" s="21" t="s">
         <v>84</v>
       </c>
       <c r="D276" s="21" t="s">
+        <v>581</v>
+      </c>
+      <c r="E276" s="22" t="s">
         <v>582</v>
-      </c>
-      <c r="E276" s="22" t="s">
-        <v>583</v>
       </c>
       <c r="F276" s="23"/>
       <c r="G276" s="24"/>
@@ -17222,16 +17231,16 @@
         <v>270</v>
       </c>
       <c r="B277" s="21" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C277" s="21" t="s">
         <v>84</v>
       </c>
       <c r="D277" s="21" t="s">
+        <v>583</v>
+      </c>
+      <c r="E277" s="22" t="s">
         <v>584</v>
-      </c>
-      <c r="E277" s="22" t="s">
-        <v>585</v>
       </c>
       <c r="F277" s="23"/>
       <c r="G277" s="24"/>
@@ -17256,16 +17265,16 @@
         <v>271</v>
       </c>
       <c r="B278" s="21" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C278" s="21" t="s">
         <v>84</v>
       </c>
       <c r="D278" s="21" t="s">
+        <v>585</v>
+      </c>
+      <c r="E278" s="22" t="s">
         <v>586</v>
-      </c>
-      <c r="E278" s="22" t="s">
-        <v>587</v>
       </c>
       <c r="F278" s="23"/>
       <c r="G278" s="24"/>
@@ -17290,16 +17299,16 @@
         <v>272</v>
       </c>
       <c r="B279" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C279" s="21" t="s">
         <v>93</v>
       </c>
       <c r="D279" s="21" t="s">
+        <v>587</v>
+      </c>
+      <c r="E279" s="22" t="s">
         <v>588</v>
-      </c>
-      <c r="E279" s="22" t="s">
-        <v>589</v>
       </c>
       <c r="F279" s="23"/>
       <c r="G279" s="24"/>
@@ -17324,16 +17333,16 @@
         <v>273</v>
       </c>
       <c r="B280" s="21" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C280" s="21" t="s">
         <v>93</v>
       </c>
       <c r="D280" s="21" t="s">
+        <v>589</v>
+      </c>
+      <c r="E280" s="22" t="s">
         <v>590</v>
-      </c>
-      <c r="E280" s="22" t="s">
-        <v>591</v>
       </c>
       <c r="F280" s="23"/>
       <c r="G280" s="24"/>
@@ -17358,16 +17367,16 @@
         <v>274</v>
       </c>
       <c r="B281" s="21" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C281" s="21" t="s">
         <v>93</v>
       </c>
       <c r="D281" s="21" t="s">
+        <v>591</v>
+      </c>
+      <c r="E281" s="22" t="s">
         <v>592</v>
-      </c>
-      <c r="E281" s="22" t="s">
-        <v>593</v>
       </c>
       <c r="F281" s="23"/>
       <c r="G281" s="24"/>
@@ -17392,16 +17401,16 @@
         <v>275</v>
       </c>
       <c r="B282" s="21" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C282" s="21" t="s">
         <v>93</v>
       </c>
       <c r="D282" s="21" t="s">
+        <v>593</v>
+      </c>
+      <c r="E282" s="22" t="s">
         <v>594</v>
-      </c>
-      <c r="E282" s="22" t="s">
-        <v>595</v>
       </c>
       <c r="F282" s="23"/>
       <c r="G282" s="24"/>
@@ -17426,16 +17435,16 @@
         <v>276</v>
       </c>
       <c r="B283" s="21" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C283" s="21" t="s">
         <v>93</v>
       </c>
       <c r="D283" s="21" t="s">
+        <v>595</v>
+      </c>
+      <c r="E283" s="22" t="s">
         <v>596</v>
-      </c>
-      <c r="E283" s="22" t="s">
-        <v>597</v>
       </c>
       <c r="F283" s="23"/>
       <c r="G283" s="24"/>
@@ -17460,16 +17469,16 @@
         <v>277</v>
       </c>
       <c r="B284" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C284" s="21" t="s">
         <v>93</v>
       </c>
       <c r="D284" s="21" t="s">
+        <v>597</v>
+      </c>
+      <c r="E284" s="22" t="s">
         <v>598</v>
-      </c>
-      <c r="E284" s="22" t="s">
-        <v>599</v>
       </c>
       <c r="F284" s="23"/>
       <c r="G284" s="24"/>
@@ -17494,16 +17503,16 @@
         <v>278</v>
       </c>
       <c r="B285" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C285" s="21" t="s">
         <v>93</v>
       </c>
       <c r="D285" s="21" t="s">
+        <v>599</v>
+      </c>
+      <c r="E285" s="22" t="s">
         <v>600</v>
-      </c>
-      <c r="E285" s="22" t="s">
-        <v>601</v>
       </c>
       <c r="F285" s="23"/>
       <c r="G285" s="24"/>
@@ -17528,16 +17537,16 @@
         <v>279</v>
       </c>
       <c r="B286" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C286" s="21" t="s">
         <v>93</v>
       </c>
       <c r="D286" s="21" t="s">
+        <v>601</v>
+      </c>
+      <c r="E286" s="22" t="s">
         <v>602</v>
-      </c>
-      <c r="E286" s="22" t="s">
-        <v>603</v>
       </c>
       <c r="F286" s="23"/>
       <c r="G286" s="24"/>
@@ -17562,16 +17571,16 @@
         <v>280</v>
       </c>
       <c r="B287" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C287" s="21" t="s">
         <v>93</v>
       </c>
       <c r="D287" s="21" t="s">
+        <v>603</v>
+      </c>
+      <c r="E287" s="22" t="s">
         <v>604</v>
-      </c>
-      <c r="E287" s="22" t="s">
-        <v>605</v>
       </c>
       <c r="F287" s="23"/>
       <c r="G287" s="24"/>
@@ -17596,16 +17605,16 @@
         <v>281</v>
       </c>
       <c r="B288" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C288" s="21" t="s">
         <v>93</v>
       </c>
       <c r="D288" s="21" t="s">
+        <v>605</v>
+      </c>
+      <c r="E288" s="22" t="s">
         <v>606</v>
-      </c>
-      <c r="E288" s="22" t="s">
-        <v>607</v>
       </c>
       <c r="F288" s="23"/>
       <c r="G288" s="24"/>
@@ -17630,16 +17639,16 @@
         <v>282</v>
       </c>
       <c r="B289" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C289" s="21" t="s">
         <v>93</v>
       </c>
       <c r="D289" s="21" t="s">
+        <v>607</v>
+      </c>
+      <c r="E289" s="22" t="s">
         <v>608</v>
-      </c>
-      <c r="E289" s="22" t="s">
-        <v>609</v>
       </c>
       <c r="F289" s="23"/>
       <c r="G289" s="24"/>
@@ -17664,16 +17673,16 @@
         <v>283</v>
       </c>
       <c r="B290" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C290" s="21" t="s">
         <v>93</v>
       </c>
       <c r="D290" s="21" t="s">
+        <v>609</v>
+      </c>
+      <c r="E290" s="22" t="s">
         <v>610</v>
-      </c>
-      <c r="E290" s="22" t="s">
-        <v>611</v>
       </c>
       <c r="F290" s="23"/>
       <c r="G290" s="24"/>
@@ -17698,16 +17707,16 @@
         <v>284</v>
       </c>
       <c r="B291" s="21" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C291" s="21" t="s">
         <v>93</v>
       </c>
       <c r="D291" s="21" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E291" s="22" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F291" s="23"/>
       <c r="G291" s="24"/>
@@ -17732,16 +17741,16 @@
         <v>285</v>
       </c>
       <c r="B292" s="21" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C292" s="21" t="s">
         <v>93</v>
       </c>
       <c r="D292" s="21" t="s">
+        <v>612</v>
+      </c>
+      <c r="E292" s="22" t="s">
         <v>613</v>
-      </c>
-      <c r="E292" s="22" t="s">
-        <v>614</v>
       </c>
       <c r="F292" s="23"/>
       <c r="G292" s="24"/>
@@ -17766,16 +17775,16 @@
         <v>286</v>
       </c>
       <c r="B293" s="21" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C293" s="21" t="s">
         <v>93</v>
       </c>
       <c r="D293" s="21" t="s">
+        <v>614</v>
+      </c>
+      <c r="E293" s="22" t="s">
         <v>615</v>
-      </c>
-      <c r="E293" s="22" t="s">
-        <v>616</v>
       </c>
       <c r="F293" s="23"/>
       <c r="G293" s="24"/>
@@ -17800,16 +17809,16 @@
         <v>287</v>
       </c>
       <c r="B294" s="21" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C294" s="21" t="s">
         <v>93</v>
       </c>
       <c r="D294" s="21" t="s">
+        <v>616</v>
+      </c>
+      <c r="E294" s="22" t="s">
         <v>617</v>
-      </c>
-      <c r="E294" s="22" t="s">
-        <v>618</v>
       </c>
       <c r="F294" s="23"/>
       <c r="G294" s="24"/>
@@ -17834,16 +17843,16 @@
         <v>288</v>
       </c>
       <c r="B295" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C295" s="21" t="s">
         <v>112</v>
       </c>
       <c r="D295" s="21" t="s">
+        <v>618</v>
+      </c>
+      <c r="E295" s="22" t="s">
         <v>619</v>
-      </c>
-      <c r="E295" s="22" t="s">
-        <v>620</v>
       </c>
       <c r="F295" s="23"/>
       <c r="G295" s="24"/>
@@ -17868,16 +17877,16 @@
         <v>289</v>
       </c>
       <c r="B296" s="21" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C296" s="21" t="s">
         <v>112</v>
       </c>
       <c r="D296" s="21" t="s">
+        <v>620</v>
+      </c>
+      <c r="E296" s="22" t="s">
         <v>621</v>
-      </c>
-      <c r="E296" s="22" t="s">
-        <v>622</v>
       </c>
       <c r="F296" s="23"/>
       <c r="G296" s="24"/>
@@ -17902,16 +17911,16 @@
         <v>290</v>
       </c>
       <c r="B297" s="21" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C297" s="21" t="s">
         <v>112</v>
       </c>
       <c r="D297" s="21" t="s">
+        <v>622</v>
+      </c>
+      <c r="E297" s="22" t="s">
         <v>623</v>
-      </c>
-      <c r="E297" s="22" t="s">
-        <v>624</v>
       </c>
       <c r="F297" s="23"/>
       <c r="G297" s="24"/>
@@ -17936,16 +17945,16 @@
         <v>291</v>
       </c>
       <c r="B298" s="21" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C298" s="21" t="s">
         <v>112</v>
       </c>
       <c r="D298" s="21" t="s">
+        <v>624</v>
+      </c>
+      <c r="E298" s="22" t="s">
         <v>625</v>
-      </c>
-      <c r="E298" s="22" t="s">
-        <v>626</v>
       </c>
       <c r="F298" s="23"/>
       <c r="G298" s="24"/>
@@ -17970,16 +17979,16 @@
         <v>292</v>
       </c>
       <c r="B299" s="21" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C299" s="21" t="s">
         <v>112</v>
       </c>
       <c r="D299" s="21" t="s">
+        <v>626</v>
+      </c>
+      <c r="E299" s="22" t="s">
         <v>627</v>
-      </c>
-      <c r="E299" s="22" t="s">
-        <v>628</v>
       </c>
       <c r="F299" s="23"/>
       <c r="G299" s="24"/>
@@ -18004,16 +18013,16 @@
         <v>293</v>
       </c>
       <c r="B300" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C300" s="21" t="s">
         <v>112</v>
       </c>
       <c r="D300" s="21" t="s">
+        <v>628</v>
+      </c>
+      <c r="E300" s="22" t="s">
         <v>629</v>
-      </c>
-      <c r="E300" s="22" t="s">
-        <v>630</v>
       </c>
       <c r="F300" s="23"/>
       <c r="G300" s="24"/>
@@ -18038,16 +18047,16 @@
         <v>294</v>
       </c>
       <c r="B301" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C301" s="21" t="s">
         <v>112</v>
       </c>
       <c r="D301" s="21" t="s">
+        <v>630</v>
+      </c>
+      <c r="E301" s="22" t="s">
         <v>631</v>
-      </c>
-      <c r="E301" s="22" t="s">
-        <v>632</v>
       </c>
       <c r="F301" s="23"/>
       <c r="G301" s="24"/>
@@ -18072,16 +18081,16 @@
         <v>295</v>
       </c>
       <c r="B302" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C302" s="21" t="s">
         <v>112</v>
       </c>
       <c r="D302" s="21" t="s">
+        <v>632</v>
+      </c>
+      <c r="E302" s="22" t="s">
         <v>633</v>
-      </c>
-      <c r="E302" s="22" t="s">
-        <v>634</v>
       </c>
       <c r="F302" s="23"/>
       <c r="G302" s="24"/>
@@ -18106,16 +18115,16 @@
         <v>296</v>
       </c>
       <c r="B303" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C303" s="21" t="s">
         <v>112</v>
       </c>
       <c r="D303" s="21" t="s">
+        <v>634</v>
+      </c>
+      <c r="E303" s="22" t="s">
         <v>635</v>
-      </c>
-      <c r="E303" s="22" t="s">
-        <v>636</v>
       </c>
       <c r="F303" s="23"/>
       <c r="G303" s="24"/>
@@ -18140,16 +18149,16 @@
         <v>297</v>
       </c>
       <c r="B304" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C304" s="21" t="s">
         <v>112</v>
       </c>
       <c r="D304" s="21" t="s">
+        <v>636</v>
+      </c>
+      <c r="E304" s="22" t="s">
         <v>637</v>
-      </c>
-      <c r="E304" s="22" t="s">
-        <v>638</v>
       </c>
       <c r="F304" s="23"/>
       <c r="G304" s="24"/>
@@ -18174,16 +18183,16 @@
         <v>298</v>
       </c>
       <c r="B305" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C305" s="21" t="s">
         <v>112</v>
       </c>
       <c r="D305" s="21" t="s">
+        <v>638</v>
+      </c>
+      <c r="E305" s="22" t="s">
         <v>639</v>
-      </c>
-      <c r="E305" s="22" t="s">
-        <v>640</v>
       </c>
       <c r="F305" s="23"/>
       <c r="G305" s="24"/>
@@ -18208,16 +18217,16 @@
         <v>299</v>
       </c>
       <c r="B306" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C306" s="21" t="s">
         <v>112</v>
       </c>
       <c r="D306" s="21" t="s">
+        <v>640</v>
+      </c>
+      <c r="E306" s="22" t="s">
         <v>641</v>
-      </c>
-      <c r="E306" s="22" t="s">
-        <v>642</v>
       </c>
       <c r="F306" s="23"/>
       <c r="G306" s="24"/>
@@ -18242,16 +18251,16 @@
         <v>300</v>
       </c>
       <c r="B307" s="21" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C307" s="21" t="s">
         <v>112</v>
       </c>
       <c r="D307" s="21" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E307" s="22" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F307" s="23"/>
       <c r="G307" s="24"/>
@@ -18276,16 +18285,16 @@
         <v>301</v>
       </c>
       <c r="B308" s="21" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C308" s="21" t="s">
         <v>112</v>
       </c>
       <c r="D308" s="21" t="s">
+        <v>643</v>
+      </c>
+      <c r="E308" s="22" t="s">
         <v>644</v>
-      </c>
-      <c r="E308" s="22" t="s">
-        <v>645</v>
       </c>
       <c r="F308" s="23"/>
       <c r="G308" s="24"/>
@@ -18310,16 +18319,16 @@
         <v>302</v>
       </c>
       <c r="B309" s="21" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C309" s="21" t="s">
         <v>112</v>
       </c>
       <c r="D309" s="21" t="s">
+        <v>645</v>
+      </c>
+      <c r="E309" s="22" t="s">
         <v>646</v>
-      </c>
-      <c r="E309" s="22" t="s">
-        <v>647</v>
       </c>
       <c r="F309" s="23"/>
       <c r="G309" s="24"/>
@@ -18344,16 +18353,16 @@
         <v>303</v>
       </c>
       <c r="B310" s="21" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C310" s="21" t="s">
         <v>112</v>
       </c>
       <c r="D310" s="21" t="s">
+        <v>647</v>
+      </c>
+      <c r="E310" s="22" t="s">
         <v>648</v>
-      </c>
-      <c r="E310" s="22" t="s">
-        <v>649</v>
       </c>
       <c r="F310" s="23"/>
       <c r="G310" s="24"/>
@@ -18378,16 +18387,16 @@
         <v>304</v>
       </c>
       <c r="B311" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C311" s="21" t="s">
         <v>107</v>
       </c>
       <c r="D311" s="21" t="s">
+        <v>649</v>
+      </c>
+      <c r="E311" s="22" t="s">
         <v>650</v>
-      </c>
-      <c r="E311" s="22" t="s">
-        <v>651</v>
       </c>
       <c r="F311" s="23"/>
       <c r="G311" s="24"/>
@@ -18412,16 +18421,16 @@
         <v>305</v>
       </c>
       <c r="B312" s="21" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C312" s="21" t="s">
         <v>107</v>
       </c>
       <c r="D312" s="21" t="s">
+        <v>651</v>
+      </c>
+      <c r="E312" s="22" t="s">
         <v>652</v>
-      </c>
-      <c r="E312" s="22" t="s">
-        <v>653</v>
       </c>
       <c r="F312" s="23"/>
       <c r="G312" s="24"/>
@@ -18446,16 +18455,16 @@
         <v>306</v>
       </c>
       <c r="B313" s="21" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C313" s="21" t="s">
         <v>107</v>
       </c>
       <c r="D313" s="21" t="s">
+        <v>653</v>
+      </c>
+      <c r="E313" s="22" t="s">
         <v>654</v>
-      </c>
-      <c r="E313" s="22" t="s">
-        <v>655</v>
       </c>
       <c r="F313" s="23"/>
       <c r="G313" s="24"/>
@@ -18480,16 +18489,16 @@
         <v>307</v>
       </c>
       <c r="B314" s="21" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C314" s="21" t="s">
         <v>107</v>
       </c>
       <c r="D314" s="21" t="s">
+        <v>655</v>
+      </c>
+      <c r="E314" s="22" t="s">
         <v>656</v>
-      </c>
-      <c r="E314" s="22" t="s">
-        <v>657</v>
       </c>
       <c r="F314" s="23"/>
       <c r="G314" s="24"/>
@@ -18514,16 +18523,16 @@
         <v>308</v>
       </c>
       <c r="B315" s="21" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C315" s="21" t="s">
         <v>107</v>
       </c>
       <c r="D315" s="21" t="s">
+        <v>657</v>
+      </c>
+      <c r="E315" s="22" t="s">
         <v>658</v>
-      </c>
-      <c r="E315" s="22" t="s">
-        <v>659</v>
       </c>
       <c r="F315" s="23"/>
       <c r="G315" s="24"/>
@@ -18548,16 +18557,16 @@
         <v>309</v>
       </c>
       <c r="B316" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C316" s="21" t="s">
         <v>107</v>
       </c>
       <c r="D316" s="21" t="s">
+        <v>659</v>
+      </c>
+      <c r="E316" s="22" t="s">
         <v>660</v>
-      </c>
-      <c r="E316" s="22" t="s">
-        <v>661</v>
       </c>
       <c r="F316" s="23"/>
       <c r="G316" s="24"/>
@@ -18582,16 +18591,16 @@
         <v>310</v>
       </c>
       <c r="B317" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C317" s="21" t="s">
         <v>107</v>
       </c>
       <c r="D317" s="21" t="s">
+        <v>661</v>
+      </c>
+      <c r="E317" s="22" t="s">
         <v>662</v>
-      </c>
-      <c r="E317" s="22" t="s">
-        <v>663</v>
       </c>
       <c r="F317" s="23"/>
       <c r="G317" s="24"/>
@@ -18616,16 +18625,16 @@
         <v>311</v>
       </c>
       <c r="B318" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C318" s="21" t="s">
         <v>107</v>
       </c>
       <c r="D318" s="21" t="s">
+        <v>663</v>
+      </c>
+      <c r="E318" s="22" t="s">
         <v>664</v>
-      </c>
-      <c r="E318" s="22" t="s">
-        <v>665</v>
       </c>
       <c r="F318" s="23"/>
       <c r="G318" s="24"/>
@@ -18650,16 +18659,16 @@
         <v>312</v>
       </c>
       <c r="B319" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C319" s="21" t="s">
         <v>107</v>
       </c>
       <c r="D319" s="21" t="s">
+        <v>665</v>
+      </c>
+      <c r="E319" s="22" t="s">
         <v>666</v>
-      </c>
-      <c r="E319" s="22" t="s">
-        <v>667</v>
       </c>
       <c r="F319" s="23"/>
       <c r="G319" s="24"/>
@@ -18684,16 +18693,16 @@
         <v>313</v>
       </c>
       <c r="B320" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C320" s="21" t="s">
         <v>107</v>
       </c>
       <c r="D320" s="21" t="s">
+        <v>667</v>
+      </c>
+      <c r="E320" s="22" t="s">
         <v>668</v>
-      </c>
-      <c r="E320" s="22" t="s">
-        <v>669</v>
       </c>
       <c r="F320" s="23"/>
       <c r="G320" s="24"/>
@@ -18718,16 +18727,16 @@
         <v>314</v>
       </c>
       <c r="B321" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C321" s="21" t="s">
         <v>107</v>
       </c>
       <c r="D321" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="E321" s="22" t="s">
         <v>670</v>
-      </c>
-      <c r="E321" s="22" t="s">
-        <v>671</v>
       </c>
       <c r="F321" s="23"/>
       <c r="G321" s="24"/>
@@ -18752,16 +18761,16 @@
         <v>315</v>
       </c>
       <c r="B322" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C322" s="21" t="s">
         <v>107</v>
       </c>
       <c r="D322" s="21" t="s">
+        <v>671</v>
+      </c>
+      <c r="E322" s="22" t="s">
         <v>672</v>
-      </c>
-      <c r="E322" s="22" t="s">
-        <v>673</v>
       </c>
       <c r="F322" s="23"/>
       <c r="G322" s="24"/>
@@ -18786,16 +18795,16 @@
         <v>316</v>
       </c>
       <c r="B323" s="21" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C323" s="21" t="s">
         <v>107</v>
       </c>
       <c r="D323" s="21" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E323" s="22" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F323" s="23"/>
       <c r="G323" s="24"/>
@@ -18820,16 +18829,16 @@
         <v>317</v>
       </c>
       <c r="B324" s="21" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C324" s="21" t="s">
         <v>107</v>
       </c>
       <c r="D324" s="21" t="s">
+        <v>674</v>
+      </c>
+      <c r="E324" s="22" t="s">
         <v>675</v>
-      </c>
-      <c r="E324" s="22" t="s">
-        <v>676</v>
       </c>
       <c r="F324" s="23"/>
       <c r="G324" s="24"/>
@@ -18854,16 +18863,16 @@
         <v>318</v>
       </c>
       <c r="B325" s="21" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C325" s="21" t="s">
         <v>107</v>
       </c>
       <c r="D325" s="21" t="s">
+        <v>676</v>
+      </c>
+      <c r="E325" s="22" t="s">
         <v>677</v>
-      </c>
-      <c r="E325" s="22" t="s">
-        <v>678</v>
       </c>
       <c r="F325" s="23"/>
       <c r="G325" s="24"/>
@@ -18888,16 +18897,16 @@
         <v>319</v>
       </c>
       <c r="B326" s="21" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C326" s="21" t="s">
         <v>107</v>
       </c>
       <c r="D326" s="21" t="s">
+        <v>678</v>
+      </c>
+      <c r="E326" s="22" t="s">
         <v>679</v>
-      </c>
-      <c r="E326" s="22" t="s">
-        <v>680</v>
       </c>
       <c r="F326" s="23"/>
       <c r="G326" s="24"/>
@@ -18922,16 +18931,16 @@
         <v>320</v>
       </c>
       <c r="B327" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C327" s="21" t="s">
         <v>45</v>
       </c>
       <c r="D327" s="21" t="s">
+        <v>680</v>
+      </c>
+      <c r="E327" s="22" t="s">
         <v>681</v>
-      </c>
-      <c r="E327" s="22" t="s">
-        <v>682</v>
       </c>
       <c r="F327" s="23"/>
       <c r="G327" s="24"/>
@@ -18956,16 +18965,16 @@
         <v>321</v>
       </c>
       <c r="B328" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C328" s="21" t="s">
         <v>45</v>
       </c>
       <c r="D328" s="21" t="s">
+        <v>682</v>
+      </c>
+      <c r="E328" s="22" t="s">
         <v>683</v>
-      </c>
-      <c r="E328" s="22" t="s">
-        <v>684</v>
       </c>
       <c r="F328" s="23"/>
       <c r="G328" s="24"/>
@@ -18990,16 +18999,16 @@
         <v>322</v>
       </c>
       <c r="B329" s="21" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C329" s="21" t="s">
         <v>45</v>
       </c>
       <c r="D329" s="21" t="s">
+        <v>684</v>
+      </c>
+      <c r="E329" s="22" t="s">
         <v>685</v>
-      </c>
-      <c r="E329" s="22" t="s">
-        <v>686</v>
       </c>
       <c r="F329" s="23"/>
       <c r="G329" s="24"/>
@@ -19024,16 +19033,16 @@
         <v>323</v>
       </c>
       <c r="B330" s="21" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C330" s="21" t="s">
         <v>45</v>
       </c>
       <c r="D330" s="21" t="s">
+        <v>686</v>
+      </c>
+      <c r="E330" s="22" t="s">
         <v>687</v>
-      </c>
-      <c r="E330" s="22" t="s">
-        <v>688</v>
       </c>
       <c r="F330" s="23"/>
       <c r="G330" s="24"/>
@@ -19058,16 +19067,16 @@
         <v>324</v>
       </c>
       <c r="B331" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C331" s="21" t="s">
         <v>57</v>
       </c>
       <c r="D331" s="21" t="s">
+        <v>688</v>
+      </c>
+      <c r="E331" s="22" t="s">
         <v>689</v>
-      </c>
-      <c r="E331" s="22" t="s">
-        <v>690</v>
       </c>
       <c r="F331" s="23"/>
       <c r="G331" s="24"/>
@@ -19092,16 +19101,16 @@
         <v>325</v>
       </c>
       <c r="B332" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C332" s="21" t="s">
         <v>57</v>
       </c>
       <c r="D332" s="21" t="s">
+        <v>690</v>
+      </c>
+      <c r="E332" s="22" t="s">
         <v>691</v>
-      </c>
-      <c r="E332" s="22" t="s">
-        <v>692</v>
       </c>
       <c r="F332" s="23"/>
       <c r="G332" s="24"/>
@@ -19126,16 +19135,16 @@
         <v>326</v>
       </c>
       <c r="B333" s="21" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C333" s="21" t="s">
         <v>57</v>
       </c>
       <c r="D333" s="21" t="s">
+        <v>692</v>
+      </c>
+      <c r="E333" s="22" t="s">
         <v>693</v>
-      </c>
-      <c r="E333" s="22" t="s">
-        <v>694</v>
       </c>
       <c r="F333" s="23"/>
       <c r="G333" s="24"/>
@@ -19160,16 +19169,16 @@
         <v>327</v>
       </c>
       <c r="B334" s="21" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C334" s="21" t="s">
         <v>57</v>
       </c>
       <c r="D334" s="21" t="s">
+        <v>694</v>
+      </c>
+      <c r="E334" s="22" t="s">
         <v>695</v>
-      </c>
-      <c r="E334" s="22" t="s">
-        <v>696</v>
       </c>
       <c r="F334" s="23"/>
       <c r="G334" s="24"/>
@@ -19194,16 +19203,16 @@
         <v>328</v>
       </c>
       <c r="B335" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C335" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D335" s="21" t="s">
+        <v>696</v>
+      </c>
+      <c r="E335" s="22" t="s">
         <v>697</v>
-      </c>
-      <c r="E335" s="22" t="s">
-        <v>698</v>
       </c>
       <c r="F335" s="23"/>
       <c r="G335" s="24"/>
@@ -19228,16 +19237,16 @@
         <v>329</v>
       </c>
       <c r="B336" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C336" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D336" s="21" t="s">
+        <v>698</v>
+      </c>
+      <c r="E336" s="22" t="s">
         <v>699</v>
-      </c>
-      <c r="E336" s="22" t="s">
-        <v>700</v>
       </c>
       <c r="F336" s="23"/>
       <c r="G336" s="24"/>
@@ -19262,16 +19271,16 @@
         <v>330</v>
       </c>
       <c r="B337" s="21" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C337" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D337" s="21" t="s">
+        <v>700</v>
+      </c>
+      <c r="E337" s="22" t="s">
         <v>701</v>
-      </c>
-      <c r="E337" s="22" t="s">
-        <v>702</v>
       </c>
       <c r="F337" s="23"/>
       <c r="G337" s="24"/>
@@ -19296,16 +19305,16 @@
         <v>331</v>
       </c>
       <c r="B338" s="21" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C338" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D338" s="21" t="s">
+        <v>702</v>
+      </c>
+      <c r="E338" s="22" t="s">
         <v>703</v>
-      </c>
-      <c r="E338" s="22" t="s">
-        <v>704</v>
       </c>
       <c r="F338" s="23"/>
       <c r="G338" s="24"/>
@@ -19330,16 +19339,16 @@
         <v>332</v>
       </c>
       <c r="B339" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C339" s="21" t="s">
         <v>75</v>
       </c>
       <c r="D339" s="21" t="s">
+        <v>704</v>
+      </c>
+      <c r="E339" s="22" t="s">
         <v>705</v>
-      </c>
-      <c r="E339" s="22" t="s">
-        <v>706</v>
       </c>
       <c r="F339" s="23"/>
       <c r="G339" s="24"/>
@@ -19364,16 +19373,16 @@
         <v>333</v>
       </c>
       <c r="B340" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C340" s="21" t="s">
         <v>75</v>
       </c>
       <c r="D340" s="21" t="s">
+        <v>706</v>
+      </c>
+      <c r="E340" s="22" t="s">
         <v>707</v>
-      </c>
-      <c r="E340" s="22" t="s">
-        <v>708</v>
       </c>
       <c r="F340" s="23"/>
       <c r="G340" s="24"/>
@@ -19398,16 +19407,16 @@
         <v>334</v>
       </c>
       <c r="B341" s="21" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C341" s="21" t="s">
         <v>75</v>
       </c>
       <c r="D341" s="21" t="s">
+        <v>708</v>
+      </c>
+      <c r="E341" s="22" t="s">
         <v>709</v>
-      </c>
-      <c r="E341" s="22" t="s">
-        <v>710</v>
       </c>
       <c r="F341" s="23"/>
       <c r="G341" s="24"/>
@@ -19432,16 +19441,16 @@
         <v>335</v>
       </c>
       <c r="B342" s="21" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C342" s="21" t="s">
         <v>75</v>
       </c>
       <c r="D342" s="21" t="s">
+        <v>710</v>
+      </c>
+      <c r="E342" s="22" t="s">
         <v>711</v>
-      </c>
-      <c r="E342" s="22" t="s">
-        <v>712</v>
       </c>
       <c r="F342" s="23"/>
       <c r="G342" s="24"/>
@@ -19466,16 +19475,16 @@
         <v>336</v>
       </c>
       <c r="B343" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C343" s="21" t="s">
         <v>84</v>
       </c>
       <c r="D343" s="21" t="s">
+        <v>712</v>
+      </c>
+      <c r="E343" s="22" t="s">
         <v>713</v>
-      </c>
-      <c r="E343" s="22" t="s">
-        <v>714</v>
       </c>
       <c r="F343" s="23"/>
       <c r="G343" s="24"/>
@@ -19500,16 +19509,16 @@
         <v>337</v>
       </c>
       <c r="B344" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C344" s="21" t="s">
         <v>84</v>
       </c>
       <c r="D344" s="21" t="s">
+        <v>714</v>
+      </c>
+      <c r="E344" s="22" t="s">
         <v>715</v>
-      </c>
-      <c r="E344" s="22" t="s">
-        <v>716</v>
       </c>
       <c r="F344" s="23"/>
       <c r="G344" s="24"/>
@@ -19534,16 +19543,16 @@
         <v>338</v>
       </c>
       <c r="B345" s="21" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C345" s="21" t="s">
         <v>84</v>
       </c>
       <c r="D345" s="21" t="s">
+        <v>716</v>
+      </c>
+      <c r="E345" s="22" t="s">
         <v>717</v>
-      </c>
-      <c r="E345" s="22" t="s">
-        <v>718</v>
       </c>
       <c r="F345" s="23"/>
       <c r="G345" s="24"/>
@@ -19568,16 +19577,16 @@
         <v>339</v>
       </c>
       <c r="B346" s="21" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C346" s="21" t="s">
         <v>84</v>
       </c>
       <c r="D346" s="21" t="s">
+        <v>718</v>
+      </c>
+      <c r="E346" s="22" t="s">
         <v>719</v>
-      </c>
-      <c r="E346" s="22" t="s">
-        <v>720</v>
       </c>
       <c r="F346" s="23"/>
       <c r="G346" s="24"/>
@@ -19602,16 +19611,16 @@
         <v>340</v>
       </c>
       <c r="B347" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C347" s="21" t="s">
         <v>93</v>
       </c>
       <c r="D347" s="21" t="s">
+        <v>720</v>
+      </c>
+      <c r="E347" s="22" t="s">
         <v>721</v>
-      </c>
-      <c r="E347" s="22" t="s">
-        <v>722</v>
       </c>
       <c r="F347" s="23"/>
       <c r="G347" s="24"/>
@@ -19636,16 +19645,16 @@
         <v>341</v>
       </c>
       <c r="B348" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C348" s="21" t="s">
         <v>93</v>
       </c>
       <c r="D348" s="21" t="s">
+        <v>722</v>
+      </c>
+      <c r="E348" s="22" t="s">
         <v>723</v>
-      </c>
-      <c r="E348" s="22" t="s">
-        <v>724</v>
       </c>
       <c r="F348" s="23"/>
       <c r="G348" s="24"/>
@@ -19670,16 +19679,16 @@
         <v>342</v>
       </c>
       <c r="B349" s="21" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C349" s="21" t="s">
         <v>93</v>
       </c>
       <c r="D349" s="21" t="s">
+        <v>724</v>
+      </c>
+      <c r="E349" s="22" t="s">
         <v>725</v>
-      </c>
-      <c r="E349" s="22" t="s">
-        <v>726</v>
       </c>
       <c r="F349" s="23"/>
       <c r="G349" s="24"/>
@@ -19704,16 +19713,16 @@
         <v>343</v>
       </c>
       <c r="B350" s="21" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C350" s="21" t="s">
         <v>93</v>
       </c>
       <c r="D350" s="21" t="s">
+        <v>726</v>
+      </c>
+      <c r="E350" s="22" t="s">
         <v>727</v>
-      </c>
-      <c r="E350" s="22" t="s">
-        <v>728</v>
       </c>
       <c r="F350" s="23"/>
       <c r="G350" s="24"/>
@@ -19738,16 +19747,16 @@
         <v>344</v>
       </c>
       <c r="B351" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C351" s="21" t="s">
         <v>112</v>
       </c>
       <c r="D351" s="21" t="s">
+        <v>728</v>
+      </c>
+      <c r="E351" s="22" t="s">
         <v>729</v>
-      </c>
-      <c r="E351" s="22" t="s">
-        <v>730</v>
       </c>
       <c r="F351" s="23"/>
       <c r="G351" s="24"/>
@@ -19772,16 +19781,16 @@
         <v>345</v>
       </c>
       <c r="B352" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C352" s="21" t="s">
         <v>112</v>
       </c>
       <c r="D352" s="21" t="s">
+        <v>730</v>
+      </c>
+      <c r="E352" s="22" t="s">
         <v>731</v>
-      </c>
-      <c r="E352" s="22" t="s">
-        <v>732</v>
       </c>
       <c r="F352" s="23"/>
       <c r="G352" s="24"/>
@@ -19806,16 +19815,16 @@
         <v>346</v>
       </c>
       <c r="B353" s="21" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C353" s="21" t="s">
         <v>112</v>
       </c>
       <c r="D353" s="21" t="s">
+        <v>732</v>
+      </c>
+      <c r="E353" s="22" t="s">
         <v>733</v>
-      </c>
-      <c r="E353" s="22" t="s">
-        <v>734</v>
       </c>
       <c r="F353" s="23"/>
       <c r="G353" s="24"/>
@@ -19840,16 +19849,16 @@
         <v>347</v>
       </c>
       <c r="B354" s="21" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C354" s="21" t="s">
         <v>112</v>
       </c>
       <c r="D354" s="21" t="s">
+        <v>734</v>
+      </c>
+      <c r="E354" s="22" t="s">
         <v>735</v>
-      </c>
-      <c r="E354" s="22" t="s">
-        <v>736</v>
       </c>
       <c r="F354" s="23"/>
       <c r="G354" s="24"/>
@@ -19874,16 +19883,16 @@
         <v>348</v>
       </c>
       <c r="B355" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C355" s="21" t="s">
         <v>107</v>
       </c>
       <c r="D355" s="21" t="s">
+        <v>736</v>
+      </c>
+      <c r="E355" s="22" t="s">
         <v>737</v>
-      </c>
-      <c r="E355" s="22" t="s">
-        <v>738</v>
       </c>
       <c r="F355" s="23"/>
       <c r="G355" s="24"/>
@@ -19908,16 +19917,16 @@
         <v>349</v>
       </c>
       <c r="B356" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C356" s="21" t="s">
         <v>107</v>
       </c>
       <c r="D356" s="21" t="s">
+        <v>738</v>
+      </c>
+      <c r="E356" s="22" t="s">
         <v>739</v>
-      </c>
-      <c r="E356" s="22" t="s">
-        <v>740</v>
       </c>
       <c r="F356" s="23"/>
       <c r="G356" s="24"/>
@@ -19942,16 +19951,16 @@
         <v>350</v>
       </c>
       <c r="B357" s="21" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C357" s="21" t="s">
         <v>107</v>
       </c>
       <c r="D357" s="21" t="s">
+        <v>740</v>
+      </c>
+      <c r="E357" s="22" t="s">
         <v>741</v>
-      </c>
-      <c r="E357" s="22" t="s">
-        <v>742</v>
       </c>
       <c r="F357" s="23"/>
       <c r="G357" s="24"/>
@@ -19976,16 +19985,16 @@
         <v>351</v>
       </c>
       <c r="B358" s="21" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C358" s="21" t="s">
         <v>107</v>
       </c>
       <c r="D358" s="21" t="s">
+        <v>742</v>
+      </c>
+      <c r="E358" s="22" t="s">
         <v>743</v>
-      </c>
-      <c r="E358" s="22" t="s">
-        <v>744</v>
       </c>
       <c r="F358" s="23"/>
       <c r="G358" s="24"/>
@@ -20010,16 +20019,16 @@
         <v>352</v>
       </c>
       <c r="B359" s="21" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C359" s="21" t="s">
         <v>45</v>
       </c>
       <c r="D359" s="21" t="s">
+        <v>744</v>
+      </c>
+      <c r="E359" s="22" t="s">
         <v>745</v>
-      </c>
-      <c r="E359" s="22" t="s">
-        <v>746</v>
       </c>
       <c r="F359" s="23"/>
       <c r="G359" s="24"/>
@@ -20044,16 +20053,16 @@
         <v>353</v>
       </c>
       <c r="B360" s="21" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C360" s="21" t="s">
         <v>45</v>
       </c>
       <c r="D360" s="21" t="s">
+        <v>746</v>
+      </c>
+      <c r="E360" s="22" t="s">
         <v>747</v>
-      </c>
-      <c r="E360" s="22" t="s">
-        <v>748</v>
       </c>
       <c r="F360" s="23"/>
       <c r="G360" s="24"/>
@@ -20078,16 +20087,16 @@
         <v>354</v>
       </c>
       <c r="B361" s="21" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C361" s="21" t="s">
         <v>57</v>
       </c>
       <c r="D361" s="21" t="s">
+        <v>748</v>
+      </c>
+      <c r="E361" s="22" t="s">
         <v>749</v>
-      </c>
-      <c r="E361" s="22" t="s">
-        <v>750</v>
       </c>
       <c r="F361" s="23"/>
       <c r="G361" s="24"/>
@@ -20112,16 +20121,16 @@
         <v>355</v>
       </c>
       <c r="B362" s="21" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C362" s="21" t="s">
         <v>57</v>
       </c>
       <c r="D362" s="21" t="s">
+        <v>750</v>
+      </c>
+      <c r="E362" s="22" t="s">
         <v>751</v>
-      </c>
-      <c r="E362" s="22" t="s">
-        <v>752</v>
       </c>
       <c r="F362" s="23"/>
       <c r="G362" s="24"/>
@@ -20146,16 +20155,16 @@
         <v>356</v>
       </c>
       <c r="B363" s="21" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C363" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D363" s="21" t="s">
+        <v>752</v>
+      </c>
+      <c r="E363" s="22" t="s">
         <v>753</v>
-      </c>
-      <c r="E363" s="22" t="s">
-        <v>754</v>
       </c>
       <c r="F363" s="23"/>
       <c r="G363" s="24"/>
@@ -20180,16 +20189,16 @@
         <v>357</v>
       </c>
       <c r="B364" s="21" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C364" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D364" s="21" t="s">
+        <v>754</v>
+      </c>
+      <c r="E364" s="22" t="s">
         <v>755</v>
-      </c>
-      <c r="E364" s="22" t="s">
-        <v>756</v>
       </c>
       <c r="F364" s="23"/>
       <c r="G364" s="24"/>
@@ -20214,16 +20223,16 @@
         <v>358</v>
       </c>
       <c r="B365" s="21" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C365" s="21" t="s">
         <v>75</v>
       </c>
       <c r="D365" s="21" t="s">
+        <v>756</v>
+      </c>
+      <c r="E365" s="22" t="s">
         <v>757</v>
-      </c>
-      <c r="E365" s="22" t="s">
-        <v>758</v>
       </c>
       <c r="F365" s="23"/>
       <c r="G365" s="24"/>
@@ -20248,16 +20257,16 @@
         <v>359</v>
       </c>
       <c r="B366" s="21" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C366" s="21" t="s">
         <v>75</v>
       </c>
       <c r="D366" s="21" t="s">
+        <v>758</v>
+      </c>
+      <c r="E366" s="22" t="s">
         <v>759</v>
-      </c>
-      <c r="E366" s="22" t="s">
-        <v>760</v>
       </c>
       <c r="F366" s="23"/>
       <c r="G366" s="24"/>
@@ -20282,16 +20291,16 @@
         <v>360</v>
       </c>
       <c r="B367" s="21" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C367" s="21" t="s">
         <v>84</v>
       </c>
       <c r="D367" s="21" t="s">
+        <v>760</v>
+      </c>
+      <c r="E367" s="22" t="s">
         <v>761</v>
-      </c>
-      <c r="E367" s="22" t="s">
-        <v>762</v>
       </c>
       <c r="F367" s="23"/>
       <c r="G367" s="24"/>
@@ -20316,16 +20325,16 @@
         <v>361</v>
       </c>
       <c r="B368" s="21" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C368" s="21" t="s">
         <v>84</v>
       </c>
       <c r="D368" s="21" t="s">
+        <v>762</v>
+      </c>
+      <c r="E368" s="22" t="s">
         <v>763</v>
-      </c>
-      <c r="E368" s="22" t="s">
-        <v>764</v>
       </c>
       <c r="F368" s="23"/>
       <c r="G368" s="24"/>
@@ -20350,16 +20359,16 @@
         <v>362</v>
       </c>
       <c r="B369" s="21" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C369" s="21" t="s">
         <v>93</v>
       </c>
       <c r="D369" s="21" t="s">
+        <v>764</v>
+      </c>
+      <c r="E369" s="22" t="s">
         <v>765</v>
-      </c>
-      <c r="E369" s="22" t="s">
-        <v>766</v>
       </c>
       <c r="F369" s="23"/>
       <c r="G369" s="24"/>
@@ -20384,16 +20393,16 @@
         <v>363</v>
       </c>
       <c r="B370" s="21" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C370" s="21" t="s">
         <v>93</v>
       </c>
       <c r="D370" s="21" t="s">
+        <v>766</v>
+      </c>
+      <c r="E370" s="22" t="s">
         <v>767</v>
-      </c>
-      <c r="E370" s="22" t="s">
-        <v>768</v>
       </c>
       <c r="F370" s="23"/>
       <c r="G370" s="24"/>
@@ -20418,16 +20427,16 @@
         <v>364</v>
       </c>
       <c r="B371" s="21" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C371" s="21" t="s">
         <v>112</v>
       </c>
       <c r="D371" s="21" t="s">
+        <v>768</v>
+      </c>
+      <c r="E371" s="22" t="s">
         <v>769</v>
-      </c>
-      <c r="E371" s="22" t="s">
-        <v>770</v>
       </c>
       <c r="F371" s="23"/>
       <c r="G371" s="24"/>
@@ -20452,16 +20461,16 @@
         <v>365</v>
       </c>
       <c r="B372" s="21" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C372" s="21" t="s">
         <v>112</v>
       </c>
       <c r="D372" s="21" t="s">
+        <v>770</v>
+      </c>
+      <c r="E372" s="22" t="s">
         <v>771</v>
-      </c>
-      <c r="E372" s="22" t="s">
-        <v>772</v>
       </c>
       <c r="F372" s="23"/>
       <c r="G372" s="24"/>
@@ -20486,16 +20495,16 @@
         <v>366</v>
       </c>
       <c r="B373" s="21" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C373" s="21" t="s">
         <v>107</v>
       </c>
       <c r="D373" s="21" t="s">
+        <v>772</v>
+      </c>
+      <c r="E373" s="22" t="s">
         <v>773</v>
-      </c>
-      <c r="E373" s="22" t="s">
-        <v>774</v>
       </c>
       <c r="F373" s="23"/>
       <c r="G373" s="24"/>
@@ -20520,16 +20529,16 @@
         <v>367</v>
       </c>
       <c r="B374" s="21" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C374" s="21" t="s">
         <v>107</v>
       </c>
       <c r="D374" s="21" t="s">
+        <v>774</v>
+      </c>
+      <c r="E374" s="22" t="s">
         <v>775</v>
-      </c>
-      <c r="E374" s="22" t="s">
-        <v>776</v>
       </c>
       <c r="F374" s="23"/>
       <c r="G374" s="24"/>
@@ -20560,10 +20569,10 @@
         <v>45</v>
       </c>
       <c r="D375" s="21" t="s">
+        <v>776</v>
+      </c>
+      <c r="E375" s="22" t="s">
         <v>777</v>
-      </c>
-      <c r="E375" s="22" t="s">
-        <v>778</v>
       </c>
       <c r="F375" s="23"/>
       <c r="G375" s="24"/>
@@ -20594,10 +20603,10 @@
         <v>57</v>
       </c>
       <c r="D376" s="21" t="s">
+        <v>778</v>
+      </c>
+      <c r="E376" s="22" t="s">
         <v>779</v>
-      </c>
-      <c r="E376" s="22" t="s">
-        <v>780</v>
       </c>
       <c r="F376" s="23"/>
       <c r="G376" s="24"/>
@@ -20628,10 +20637,10 @@
         <v>66</v>
       </c>
       <c r="D377" s="21" t="s">
+        <v>780</v>
+      </c>
+      <c r="E377" s="22" t="s">
         <v>781</v>
-      </c>
-      <c r="E377" s="22" t="s">
-        <v>782</v>
       </c>
       <c r="F377" s="23"/>
       <c r="G377" s="24"/>
@@ -20662,10 +20671,10 @@
         <v>75</v>
       </c>
       <c r="D378" s="21" t="s">
+        <v>782</v>
+      </c>
+      <c r="E378" s="22" t="s">
         <v>783</v>
-      </c>
-      <c r="E378" s="22" t="s">
-        <v>784</v>
       </c>
       <c r="F378" s="23"/>
       <c r="G378" s="24"/>
@@ -20696,10 +20705,10 @@
         <v>84</v>
       </c>
       <c r="D379" s="21" t="s">
+        <v>784</v>
+      </c>
+      <c r="E379" s="22" t="s">
         <v>785</v>
-      </c>
-      <c r="E379" s="22" t="s">
-        <v>786</v>
       </c>
       <c r="F379" s="23"/>
       <c r="G379" s="24"/>
@@ -20730,10 +20739,10 @@
         <v>93</v>
       </c>
       <c r="D380" s="21" t="s">
+        <v>786</v>
+      </c>
+      <c r="E380" s="22" t="s">
         <v>787</v>
-      </c>
-      <c r="E380" s="22" t="s">
-        <v>788</v>
       </c>
       <c r="F380" s="23"/>
       <c r="G380" s="24"/>
@@ -20763,26 +20772,26 @@
       <c r="C381" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="D381" s="49" t="s">
+      <c r="D381" s="21" t="s">
+        <v>788</v>
+      </c>
+      <c r="E381" s="22" t="s">
         <v>789</v>
-      </c>
-      <c r="E381" s="22" t="s">
-        <v>790</v>
       </c>
       <c r="F381" s="23">
         <v>45294</v>
       </c>
       <c r="G381" s="24" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="H381" s="24" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="I381" s="24" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="J381" s="25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K381" s="25"/>
       <c r="L381" s="25"/>
@@ -20808,10 +20817,10 @@
         <v>107</v>
       </c>
       <c r="D382" s="21" t="s">
+        <v>790</v>
+      </c>
+      <c r="E382" s="22" t="s">
         <v>791</v>
-      </c>
-      <c r="E382" s="22" t="s">
-        <v>792</v>
       </c>
       <c r="F382" s="23"/>
       <c r="G382" s="24"/>
@@ -20842,10 +20851,10 @@
         <v>45</v>
       </c>
       <c r="D383" s="21" t="s">
+        <v>792</v>
+      </c>
+      <c r="E383" s="22" t="s">
         <v>793</v>
-      </c>
-      <c r="E383" s="22" t="s">
-        <v>794</v>
       </c>
       <c r="F383" s="23"/>
       <c r="G383" s="24"/>
@@ -25589,10 +25598,10 @@
         <v>25</v>
       </c>
       <c r="C1" s="29" t="s">
+        <v>794</v>
+      </c>
+      <c r="D1" s="29" t="s">
         <v>795</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -25600,13 +25609,13 @@
         <v>45</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>796</v>
+      </c>
+      <c r="C2" s="30" t="s">
         <v>797</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="D2" s="30" t="s">
         <v>798</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -25614,13 +25623,13 @@
         <v>57</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C3" s="30" t="s">
+        <v>799</v>
+      </c>
+      <c r="D3" s="30" t="s">
         <v>800</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -25628,13 +25637,13 @@
         <v>66</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C4" s="30" t="s">
+        <v>801</v>
+      </c>
+      <c r="D4" s="31" t="s">
         <v>802</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -25642,13 +25651,13 @@
         <v>75</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C5" s="30" t="s">
+        <v>803</v>
+      </c>
+      <c r="D5" s="30" t="s">
         <v>804</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -25656,13 +25665,13 @@
         <v>84</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C6" s="30" t="s">
+        <v>805</v>
+      </c>
+      <c r="D6" s="31" t="s">
         <v>806</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -25670,13 +25679,13 @@
         <v>93</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C7" s="30" t="s">
+        <v>807</v>
+      </c>
+      <c r="D7" s="31" t="s">
         <v>808</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -25684,13 +25693,13 @@
         <v>112</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C8" s="30" t="s">
+        <v>809</v>
+      </c>
+      <c r="D8" s="31" t="s">
         <v>810</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -25698,27 +25707,27 @@
         <v>107</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C9" s="30" t="s">
+        <v>811</v>
+      </c>
+      <c r="D9" s="31" t="s">
         <v>812</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
+        <v>813</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>796</v>
+      </c>
+      <c r="C10" s="31" t="s">
         <v>814</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>797</v>
-      </c>
-      <c r="C10" s="31" t="s">
+      <c r="D10" s="30" t="s">
         <v>815</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -25726,13 +25735,13 @@
         <v>45</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C11" s="30">
         <v>192</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -25740,13 +25749,13 @@
         <v>57</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C12" s="30">
         <v>208</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -25754,13 +25763,13 @@
         <v>66</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C13" s="30">
         <v>224</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -25768,13 +25777,13 @@
         <v>75</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C14" s="30">
         <v>240</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -25782,13 +25791,13 @@
         <v>84</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C15" s="30">
         <v>256</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -25796,13 +25805,13 @@
         <v>93</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C16" s="30">
         <v>272</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -25810,13 +25819,13 @@
         <v>112</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C17" s="30">
         <v>288</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -25824,13 +25833,13 @@
         <v>107</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C18" s="30">
         <v>304</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -25838,13 +25847,13 @@
         <v>45</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C19" s="30">
         <v>193</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -25852,13 +25861,13 @@
         <v>57</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C20" s="30">
         <v>209</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -25866,13 +25875,13 @@
         <v>66</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C21" s="30">
         <v>225</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -25880,13 +25889,13 @@
         <v>75</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C22" s="30">
         <v>241</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -25894,13 +25903,13 @@
         <v>84</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C23" s="30">
         <v>257</v>
       </c>
       <c r="D23" s="31" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -25908,13 +25917,13 @@
         <v>93</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C24" s="30">
         <v>273</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -25922,13 +25931,13 @@
         <v>112</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C25" s="30">
         <v>289</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -25936,13 +25945,13 @@
         <v>107</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C26" s="30">
         <v>305</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -25950,13 +25959,13 @@
         <v>45</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C27" s="30">
         <v>194</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -25964,13 +25973,13 @@
         <v>57</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C28" s="30">
         <v>210</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -25978,13 +25987,13 @@
         <v>66</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C29" s="30">
         <v>226</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -25992,13 +26001,13 @@
         <v>75</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C30" s="30">
         <v>242</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -26006,13 +26015,13 @@
         <v>84</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C31" s="30">
         <v>258</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -26020,13 +26029,13 @@
         <v>93</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C32" s="30">
         <v>274</v>
       </c>
       <c r="D32" s="31" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -26034,13 +26043,13 @@
         <v>112</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C33" s="30">
         <v>290</v>
       </c>
       <c r="D33" s="31" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -26048,13 +26057,13 @@
         <v>107</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C34" s="30">
         <v>306</v>
       </c>
       <c r="D34" s="31" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -26062,7 +26071,7 @@
         <v>45</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C35" s="30">
         <v>195</v>
@@ -26076,7 +26085,7 @@
         <v>57</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C36" s="30">
         <v>211</v>
@@ -26090,7 +26099,7 @@
         <v>66</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C37" s="30">
         <v>227</v>
@@ -26104,7 +26113,7 @@
         <v>75</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C38" s="30">
         <v>243</v>
@@ -26118,7 +26127,7 @@
         <v>84</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C39" s="30">
         <v>259</v>
@@ -26132,7 +26141,7 @@
         <v>93</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C40" s="30">
         <v>275</v>
@@ -26146,7 +26155,7 @@
         <v>112</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C41" s="30">
         <v>291</v>
@@ -26160,7 +26169,7 @@
         <v>107</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C42" s="30">
         <v>307</v>
@@ -26174,7 +26183,7 @@
         <v>45</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C43" s="30">
         <v>196</v>
@@ -26188,7 +26197,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C44" s="30">
         <v>212</v>
@@ -26202,7 +26211,7 @@
         <v>66</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C45" s="30">
         <v>228</v>
@@ -26216,7 +26225,7 @@
         <v>75</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C46" s="30">
         <v>244</v>
@@ -26230,7 +26239,7 @@
         <v>84</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C47" s="30">
         <v>260</v>
@@ -26244,7 +26253,7 @@
         <v>93</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C48" s="30">
         <v>276</v>
@@ -26258,7 +26267,7 @@
         <v>112</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C49" s="30">
         <v>292</v>
@@ -26272,7 +26281,7 @@
         <v>107</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C50" s="30">
         <v>308</v>
@@ -27267,18 +27276,18 @@
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>847</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/GATEWAY/A1#111GRUPPOGPI00/TESI_SPA/ENDOXWEB/25.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111GRUPPOGPI00/TESI_SPA/ENDOXWEB/25.0/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bugs\FSE2_0\Accreditamento\ENDOX_ENDOXWEB_OPTINET\TESTCASE\ENDOXWEB\20240105\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348B6C9C-34B8-4CB9-8729-6E9E04161A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4EEBEC-7B6B-48CA-B7E1-767716E04725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2160" uniqueCount="891">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2162" uniqueCount="891">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -7708,10 +7708,10 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="D168" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="K169" sqref="K169"/>
+      <selection pane="bottomRight" activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7902,7 +7902,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="15"/>
     </row>
-    <row r="9" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>24</v>
       </c>
@@ -8950,7 +8950,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="141.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" ht="141.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="20">
         <v>32</v>
       </c>
@@ -8982,7 +8982,9 @@
         <v>138</v>
       </c>
       <c r="K39" s="25"/>
-      <c r="L39" s="25"/>
+      <c r="L39" s="25" t="s">
+        <v>847</v>
+      </c>
       <c r="M39" s="25" t="s">
         <v>138</v>
       </c>
@@ -9240,7 +9242,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="180" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="20">
         <v>40</v>
       </c>
@@ -9272,7 +9274,9 @@
         <v>138</v>
       </c>
       <c r="K47" s="25"/>
-      <c r="L47" s="25"/>
+      <c r="L47" s="25" t="s">
+        <v>847</v>
+      </c>
       <c r="M47" s="25" t="s">
         <v>138</v>
       </c>
@@ -9538,7 +9542,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="20">
         <v>48</v>
       </c>
@@ -13788,7 +13792,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="176" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="20">
         <v>169</v>
       </c>

--- a/GATEWAY/A1#111GRUPPOGPI00/TESI_SPA/ENDOXWEB/25.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111GRUPPOGPI00/TESI_SPA/ENDOXWEB/25.0/report-checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bugs\FSE2_0\Accreditamento\ENDOX_ENDOXWEB_OPTINET\TESTCASE\ENDOXWEB\20240105\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bugs\FSE2_0\Accreditamento\ENDOX_ENDOXWEB_OPTINET\TESTCASE\ENDOXWEB\20240118\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4EEBEC-7B6B-48CA-B7E1-767716E04725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B631E0EC-9138-4B89-9DCC-852316710BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -4700,15 +4700,6 @@
     <t>Il referto non è stato validato dal sistema, si desidera contnuare?</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.50504.4.4.18.56d1da87befe2b4e343b040253682ab96774e267e084581f6d511f6485171e6b.9d8d1320a0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-01-03T13:59:24.305Z</t>
-  </si>
-  <si>
-    <t>23afd723061e4346</t>
-  </si>
-  <si>
     <t>18203a19a407f970</t>
   </si>
   <si>
@@ -4724,19 +4715,7 @@
     <t xml:space="preserve"> il programma memorizza nel DB il messaggio di errore che proviene dal servizio di validazione per analisi successiva in backoffice. Una volta corretta la configurazione dell'integrazione (in questo caso il paramatero purpose_of_use)  l'utente dovrà rigenerare il referto e rifirmare</t>
   </si>
   <si>
-    <t>2024-01-05T08:38:07.100Z</t>
-  </si>
-  <si>
-    <t>28480377a3611f73</t>
-  </si>
-  <si>
     <t>UNKNOWN_WORKFLOW_ID</t>
-  </si>
-  <si>
-    <t>d99f5c579c63a383</t>
-  </si>
-  <si>
-    <t>2024-01-05T08:54:15.576Z</t>
   </si>
   <si>
     <t>Il software non gestisce in modo strutturato l'informazione relativa alle procedure legate alle singole prestazioni. 
@@ -4781,6 +4760,27 @@
   </si>
   <si>
     <t>Questo test non è applicabile perché la sezione relativa al quesito diagnostico viene inserita nel CDA solo se è stata compilata la relatova sezione lato applicativo, quindi il text è sempre presente nel CDA nel caso sia stato compilato il quesito diagnostico.</t>
+  </si>
+  <si>
+    <t>2024-01-18T09:27:08.548Z</t>
+  </si>
+  <si>
+    <t>16f852b1fe511be3</t>
+  </si>
+  <si>
+    <t>728558af440259b3</t>
+  </si>
+  <si>
+    <t>2024-01-18T09:29:02.023Z</t>
+  </si>
+  <si>
+    <t>2024-01-18T09:32:16.918Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.50504.4.4.18.56d1da87befe2b4e343b040253682ab96774e267e084581f6d511f6485171e6b.fb10d5bb1b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>3992be125ba30569</t>
   </si>
 </sst>
 </file>
@@ -7708,10 +7708,10 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E168" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="L39" sqref="L39"/>
+      <selection pane="bottomRight" activeCell="I168" sqref="I168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8967,16 +8967,16 @@
         <v>103</v>
       </c>
       <c r="F39" s="23">
-        <v>45296</v>
+        <v>45309</v>
       </c>
       <c r="G39" s="24" t="s">
-        <v>877</v>
+        <v>884</v>
       </c>
       <c r="H39" s="24" t="s">
-        <v>878</v>
+        <v>885</v>
       </c>
       <c r="I39" s="24" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="J39" s="25" t="s">
         <v>138</v>
@@ -8995,7 +8995,7 @@
         <v>138</v>
       </c>
       <c r="P39" s="25" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="Q39" s="25"/>
       <c r="R39" s="26"/>
@@ -9259,16 +9259,16 @@
         <v>129</v>
       </c>
       <c r="F47" s="23">
-        <v>45296</v>
+        <v>45309</v>
       </c>
       <c r="G47" s="24" t="s">
-        <v>881</v>
+        <v>887</v>
       </c>
       <c r="H47" s="24" t="s">
-        <v>880</v>
+        <v>886</v>
       </c>
       <c r="I47" s="24" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="J47" s="25" t="s">
         <v>138</v>
@@ -9287,7 +9287,7 @@
         <v>138</v>
       </c>
       <c r="P47" s="25" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="Q47" s="25"/>
       <c r="R47" s="26"/>
@@ -12948,7 +12948,7 @@
         <v>847</v>
       </c>
       <c r="K154" s="25" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
       <c r="L154" s="25"/>
       <c r="M154" s="25"/>
@@ -13100,7 +13100,7 @@
         <v>847</v>
       </c>
       <c r="K158" s="25" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="L158" s="25"/>
       <c r="M158" s="25"/>
@@ -13380,7 +13380,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="166" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="20">
         <v>159</v>
       </c>
@@ -13418,7 +13418,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="167" spans="1:20" ht="405" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:20" ht="405.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="20">
         <v>160</v>
       </c>
@@ -13435,16 +13435,16 @@
         <v>363</v>
       </c>
       <c r="F167" s="23">
-        <v>45294</v>
+        <v>45309</v>
       </c>
       <c r="G167" s="24" t="s">
-        <v>870</v>
+        <v>888</v>
       </c>
       <c r="H167" s="24" t="s">
-        <v>871</v>
+        <v>890</v>
       </c>
       <c r="I167" s="24" t="s">
-        <v>869</v>
+        <v>889</v>
       </c>
       <c r="J167" s="25" t="s">
         <v>138</v>
@@ -13463,7 +13463,7 @@
         <v>138</v>
       </c>
       <c r="P167" s="25" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
       <c r="Q167" s="25"/>
       <c r="R167" s="26"/>
@@ -13472,7 +13472,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="168" spans="1:20" ht="405" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:20" ht="405.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="20">
         <v>161</v>
       </c>
@@ -13489,16 +13489,16 @@
         <v>365</v>
       </c>
       <c r="F168" s="23">
-        <v>45294</v>
+        <v>45309</v>
       </c>
       <c r="G168" s="24" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="H168" s="24" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="I168" s="24" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="J168" s="25" t="s">
         <v>138</v>
@@ -13517,7 +13517,7 @@
         <v>138</v>
       </c>
       <c r="P168" s="25" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
       <c r="Q168" s="25"/>
       <c r="R168" s="26"/>
@@ -13526,7 +13526,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="169" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="20">
         <v>162</v>
       </c>
@@ -13550,7 +13550,7 @@
         <v>847</v>
       </c>
       <c r="K169" s="25" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="L169" s="25"/>
       <c r="M169" s="25"/>
@@ -13588,7 +13588,7 @@
         <v>847</v>
       </c>
       <c r="K170" s="25" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="L170" s="25"/>
       <c r="M170" s="25"/>
@@ -13626,7 +13626,7 @@
         <v>847</v>
       </c>
       <c r="K171" s="25" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="L171" s="25"/>
       <c r="M171" s="25"/>
@@ -13664,7 +13664,7 @@
         <v>847</v>
       </c>
       <c r="K172" s="25" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
       <c r="L172" s="25"/>
       <c r="M172" s="25"/>
@@ -13702,7 +13702,7 @@
         <v>847</v>
       </c>
       <c r="K173" s="25" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="L173" s="25"/>
       <c r="M173" s="25"/>
@@ -13740,7 +13740,7 @@
         <v>847</v>
       </c>
       <c r="K174" s="25" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="L174" s="25"/>
       <c r="M174" s="25"/>
@@ -13778,7 +13778,7 @@
         <v>847</v>
       </c>
       <c r="K175" s="25" t="s">
-        <v>885</v>
+        <v>878</v>
       </c>
       <c r="L175" s="25"/>
       <c r="M175" s="25"/>

--- a/GATEWAY/A1#111GRUPPOGPI00/TESI_SPA/ENDOXWEB/25.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111GRUPPOGPI00/TESI_SPA/ENDOXWEB/25.0/report-checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bugs\FSE2_0\Accreditamento\ENDOX_ENDOXWEB_OPTINET\TESTCASE\ENDOXWEB\20240118\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bugs\FSE2_0\Accreditamento\ENDOX_ENDOXWEB_OPTINET\TESTCASE\ENDOXWEB\20240122\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B631E0EC-9138-4B89-9DCC-852316710BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC926C47-4783-48DE-8515-BB4D048387E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4700,15 +4700,6 @@
     <t>Il referto non è stato validato dal sistema, si desidera contnuare?</t>
   </si>
   <si>
-    <t>18203a19a407f970</t>
-  </si>
-  <si>
-    <t>2024-01-03T14:26:34.437Z</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50504.4.4.18.8b5783d7291cb3213d104c0fb9af24903614858af615ec435c06fb02e9277195.556ac4ad6f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>Questo test non è applicabile perché lato applicativo non è gestito l'inserimento delle procedure legate alla singola prestazione.</t>
   </si>
   <si>
@@ -4781,6 +4772,15 @@
   </si>
   <si>
     <t>3992be125ba30569</t>
+  </si>
+  <si>
+    <t>ffd256d40333bd1c</t>
+  </si>
+  <si>
+    <t>2024-01-22T09:32:55.961Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.50504.4.4.18.8b5783d7291cb3213d104c0fb9af24903614858af615ec435c06fb02e9277195.9d5e099ceb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -7708,10 +7708,10 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E168" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E167" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I168" sqref="I168"/>
+      <selection pane="bottomRight" activeCell="G167" sqref="G167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8970,13 +8970,13 @@
         <v>45309</v>
       </c>
       <c r="G39" s="24" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="H39" s="24" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="I39" s="24" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="J39" s="25" t="s">
         <v>138</v>
@@ -8995,7 +8995,7 @@
         <v>138</v>
       </c>
       <c r="P39" s="25" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="Q39" s="25"/>
       <c r="R39" s="26"/>
@@ -9262,13 +9262,13 @@
         <v>45309</v>
       </c>
       <c r="G47" s="24" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="H47" s="24" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="I47" s="24" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="J47" s="25" t="s">
         <v>138</v>
@@ -9287,7 +9287,7 @@
         <v>138</v>
       </c>
       <c r="P47" s="25" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="Q47" s="25"/>
       <c r="R47" s="26"/>
@@ -12948,7 +12948,7 @@
         <v>847</v>
       </c>
       <c r="K154" s="25" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="L154" s="25"/>
       <c r="M154" s="25"/>
@@ -13100,7 +13100,7 @@
         <v>847</v>
       </c>
       <c r="K158" s="25" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="L158" s="25"/>
       <c r="M158" s="25"/>
@@ -13438,13 +13438,13 @@
         <v>45309</v>
       </c>
       <c r="G167" s="24" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="H167" s="24" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="I167" s="24" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="J167" s="25" t="s">
         <v>138</v>
@@ -13463,7 +13463,7 @@
         <v>138</v>
       </c>
       <c r="P167" s="25" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="Q167" s="25"/>
       <c r="R167" s="26"/>
@@ -13489,16 +13489,16 @@
         <v>365</v>
       </c>
       <c r="F168" s="23">
-        <v>45309</v>
+        <v>45313</v>
       </c>
       <c r="G168" s="24" t="s">
-        <v>870</v>
+        <v>889</v>
       </c>
       <c r="H168" s="24" t="s">
-        <v>869</v>
+        <v>888</v>
       </c>
       <c r="I168" s="24" t="s">
-        <v>871</v>
+        <v>890</v>
       </c>
       <c r="J168" s="25" t="s">
         <v>138</v>
@@ -13517,7 +13517,7 @@
         <v>138</v>
       </c>
       <c r="P168" s="25" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="Q168" s="25"/>
       <c r="R168" s="26"/>
@@ -13550,7 +13550,7 @@
         <v>847</v>
       </c>
       <c r="K169" s="25" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="L169" s="25"/>
       <c r="M169" s="25"/>
@@ -13588,7 +13588,7 @@
         <v>847</v>
       </c>
       <c r="K170" s="25" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="L170" s="25"/>
       <c r="M170" s="25"/>
@@ -13626,7 +13626,7 @@
         <v>847</v>
       </c>
       <c r="K171" s="25" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="L171" s="25"/>
       <c r="M171" s="25"/>
@@ -13664,7 +13664,7 @@
         <v>847</v>
       </c>
       <c r="K172" s="25" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="L172" s="25"/>
       <c r="M172" s="25"/>
@@ -13702,7 +13702,7 @@
         <v>847</v>
       </c>
       <c r="K173" s="25" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="L173" s="25"/>
       <c r="M173" s="25"/>
@@ -13740,7 +13740,7 @@
         <v>847</v>
       </c>
       <c r="K174" s="25" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="L174" s="25"/>
       <c r="M174" s="25"/>
@@ -13778,7 +13778,7 @@
         <v>847</v>
       </c>
       <c r="K175" s="25" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="L175" s="25"/>
       <c r="M175" s="25"/>

--- a/GATEWAY/A1#111GRUPPOGPI00/TESI_SPA/ENDOXWEB/25.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111GRUPPOGPI00/TESI_SPA/ENDOXWEB/25.0/report-checklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bugs\FSE2_0\Accreditamento\ENDOX_ENDOXWEB_OPTINET\TESTCASE\ENDOXWEB\20240122\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bugs\FSE2_0\Accreditamento\ENDOX_ENDOXWEB_OPTINET\TESTCASE\ENDOXWEB\20240131\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC926C47-4783-48DE-8515-BB4D048387E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1F2429-C159-4E6C-B515-027F531799B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -4753,34 +4753,34 @@
     <t>Questo test non è applicabile perché la sezione relativa al quesito diagnostico viene inserita nel CDA solo se è stata compilata la relatova sezione lato applicativo, quindi il text è sempre presente nel CDA nel caso sia stato compilato il quesito diagnostico.</t>
   </si>
   <si>
-    <t>2024-01-18T09:27:08.548Z</t>
-  </si>
-  <si>
-    <t>16f852b1fe511be3</t>
-  </si>
-  <si>
-    <t>728558af440259b3</t>
-  </si>
-  <si>
-    <t>2024-01-18T09:29:02.023Z</t>
-  </si>
-  <si>
-    <t>2024-01-18T09:32:16.918Z</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50504.4.4.18.56d1da87befe2b4e343b040253682ab96774e267e084581f6d511f6485171e6b.fb10d5bb1b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>3992be125ba30569</t>
-  </si>
-  <si>
-    <t>ffd256d40333bd1c</t>
-  </si>
-  <si>
-    <t>2024-01-22T09:32:55.961Z</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50504.4.4.18.8b5783d7291cb3213d104c0fb9af24903614858af615ec435c06fb02e9277195.9d5e099ceb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>c178b7a831a83db6</t>
+  </si>
+  <si>
+    <t>2024-01-31T08:15:15.349Z</t>
+  </si>
+  <si>
+    <t>3b8a839017abfb5f</t>
+  </si>
+  <si>
+    <t>2024-01-31T08:17:27.592Z</t>
+  </si>
+  <si>
+    <t>e2a49463fb3a0920</t>
+  </si>
+  <si>
+    <t>2024-01-31T08:19:34.905Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.50504.4.4.18.56d1da87befe2b4e343b040253682ab96774e267e084581f6d511f6485171e6b.655c247abb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>4c6b97a9351f6825</t>
+  </si>
+  <si>
+    <t>2024-01-31T08:21:32.798Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.50504.4.4.18.8b5783d7291cb3213d104c0fb9af24903614858af615ec435c06fb02e9277195.060f1dec63^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -7708,10 +7708,10 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E167" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E168" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="G167" sqref="G167"/>
+      <selection pane="bottomRight" activeCell="I168" sqref="I168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8967,13 +8967,13 @@
         <v>103</v>
       </c>
       <c r="F39" s="23">
-        <v>45309</v>
+        <v>45322</v>
       </c>
       <c r="G39" s="24" t="s">
+        <v>882</v>
+      </c>
+      <c r="H39" s="24" t="s">
         <v>881</v>
-      </c>
-      <c r="H39" s="24" t="s">
-        <v>882</v>
       </c>
       <c r="I39" s="24" t="s">
         <v>871</v>
@@ -9259,7 +9259,7 @@
         <v>129</v>
       </c>
       <c r="F47" s="23">
-        <v>45309</v>
+        <v>45322</v>
       </c>
       <c r="G47" s="24" t="s">
         <v>884</v>
@@ -13435,16 +13435,16 @@
         <v>363</v>
       </c>
       <c r="F167" s="23">
-        <v>45309</v>
+        <v>45322</v>
       </c>
       <c r="G167" s="24" t="s">
+        <v>886</v>
+      </c>
+      <c r="H167" s="24" t="s">
         <v>885</v>
       </c>
-      <c r="H167" s="24" t="s">
+      <c r="I167" s="24" t="s">
         <v>887</v>
-      </c>
-      <c r="I167" s="24" t="s">
-        <v>886</v>
       </c>
       <c r="J167" s="25" t="s">
         <v>138</v>
@@ -13489,7 +13489,7 @@
         <v>365</v>
       </c>
       <c r="F168" s="23">
-        <v>45313</v>
+        <v>45322</v>
       </c>
       <c r="G168" s="24" t="s">
         <v>889</v>
